--- a/Lab 12/Problem 1.xlsx
+++ b/Lab 12/Problem 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC245EDF-69CF-4FDD-BBF2-E047EF20AE30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795DBDA-3101-44B1-99AA-22D498D08A51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>T significant points</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Lon (degN)</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -828,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FA0A38-7381-4D8C-A322-E2EF3CC535BA}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -884,1068 +887,2426 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>8326</v>
+        <v>498</v>
       </c>
       <c r="B3">
-        <v>53.5</v>
+        <v>850.2</v>
       </c>
       <c r="C3">
-        <v>20045</v>
+        <v>1399</v>
       </c>
       <c r="D3">
-        <v>-50.15</v>
+        <v>-1.75</v>
       </c>
       <c r="E3">
-        <v>-83.85</v>
+        <v>-11.55</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>2.85</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="H3">
-        <v>-3.46</v>
+        <v>-7.39</v>
       </c>
       <c r="I3">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J3">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="K3">
-        <v>16.2</v>
+        <v>30.6</v>
       </c>
       <c r="L3">
-        <v>-123.01</v>
+        <v>-123.28</v>
       </c>
       <c r="M3">
-        <v>49.76</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>7604</v>
+        <v>262</v>
       </c>
       <c r="B4">
-        <v>71.7</v>
+        <v>916.4</v>
       </c>
       <c r="C4">
-        <v>18153</v>
+        <v>797</v>
       </c>
       <c r="D4">
-        <v>-54.35</v>
+        <v>3.3500000000000201</v>
       </c>
       <c r="E4">
-        <v>-86.85</v>
+        <v>-11.05</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>6.81</v>
+        <v>0.72</v>
       </c>
       <c r="H4">
-        <v>1.45</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="I4">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>25.2</v>
+        <v>32.4</v>
       </c>
       <c r="L4">
-        <v>-123.03</v>
+        <v>-123.25</v>
       </c>
       <c r="M4">
-        <v>49.74</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>6942</v>
+        <v>8578</v>
       </c>
       <c r="B5">
-        <v>94.7</v>
+        <v>48.1</v>
       </c>
       <c r="C5">
-        <v>16365</v>
+        <v>20746</v>
       </c>
       <c r="D5">
-        <v>-50.45</v>
+        <v>-52.15</v>
       </c>
       <c r="E5">
-        <v>-84.05</v>
+        <v>-85.25</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.69</v>
+        <v>3.32</v>
       </c>
       <c r="H5">
-        <v>3.78</v>
+        <v>-5.92</v>
       </c>
       <c r="I5">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="J5">
-        <v>11.3</v>
+        <v>6.8</v>
       </c>
       <c r="K5">
-        <v>40.68</v>
+        <v>24.48</v>
       </c>
       <c r="L5">
-        <v>-123.06</v>
+        <v>-123.02</v>
       </c>
       <c r="M5">
-        <v>49.71</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>6260</v>
+        <v>8364</v>
       </c>
       <c r="B6">
-        <v>124.7</v>
+        <v>52.8</v>
       </c>
       <c r="C6">
-        <v>14573</v>
+        <v>20139</v>
       </c>
       <c r="D6">
-        <v>-51.75</v>
+        <v>-50.35</v>
       </c>
       <c r="E6">
-        <v>-85.05</v>
+        <v>-84.05</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.2200000000000006</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H6">
-        <v>0.81</v>
+        <v>-4.57</v>
       </c>
       <c r="I6">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="J6">
-        <v>9.3000000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="K6">
-        <v>33.479999999999997</v>
+        <v>23.4</v>
       </c>
       <c r="L6">
-        <v>-123.09</v>
+        <v>-123.01</v>
       </c>
       <c r="M6">
-        <v>49.67</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5810</v>
+        <v>7602</v>
       </c>
       <c r="B7">
-        <v>149.6</v>
+        <v>71.8</v>
       </c>
       <c r="C7">
-        <v>13384</v>
+        <v>18148</v>
       </c>
       <c r="D7">
-        <v>-48.15</v>
+        <v>-54.45</v>
       </c>
       <c r="E7">
-        <v>-82.45</v>
+        <v>-86.95</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.59</v>
+        <v>6.85</v>
       </c>
       <c r="H7">
-        <v>3.53</v>
+        <v>1.38</v>
       </c>
       <c r="I7">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J7">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>36.72</v>
+        <v>25.2</v>
       </c>
       <c r="L7">
-        <v>-123.1</v>
+        <v>-123.03</v>
       </c>
       <c r="M7">
-        <v>49.64</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>4890</v>
+        <v>6940</v>
       </c>
       <c r="B8">
-        <v>210.6</v>
+        <v>94.7</v>
       </c>
       <c r="C8">
-        <v>11142</v>
+        <v>16360</v>
       </c>
       <c r="D8">
-        <v>-50.75</v>
+        <v>-50.45</v>
       </c>
       <c r="E8">
-        <v>-84.35</v>
+        <v>-84.05</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.81</v>
+        <v>10.71</v>
       </c>
       <c r="H8">
-        <v>0.66</v>
+        <v>3.67</v>
       </c>
       <c r="I8">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="J8">
-        <v>9.8000000000000007</v>
+        <v>11.3</v>
       </c>
       <c r="K8">
-        <v>35.28</v>
+        <v>40.68</v>
       </c>
       <c r="L8">
-        <v>-123.12</v>
+        <v>-123.06</v>
       </c>
       <c r="M8">
-        <v>49.57</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>4170</v>
+        <v>6220</v>
       </c>
       <c r="B9">
-        <v>274.5</v>
+        <v>126.6</v>
       </c>
       <c r="C9">
-        <v>9433</v>
+        <v>14472</v>
       </c>
       <c r="D9">
-        <v>-54.65</v>
+        <v>-51.65</v>
       </c>
       <c r="E9">
-        <v>-67.650000000000006</v>
+        <v>-84.95</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>8.98</v>
+        <v>9.68</v>
       </c>
       <c r="H9">
-        <v>5.56</v>
+        <v>0.61</v>
       </c>
       <c r="I9">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="J9">
-        <v>10.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K9">
-        <v>38.159999999999997</v>
+        <v>34.92</v>
       </c>
       <c r="L9">
-        <v>-123.13</v>
+        <v>-123.09</v>
       </c>
       <c r="M9">
-        <v>49.51</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>4138</v>
+        <v>5814</v>
       </c>
       <c r="B10">
-        <v>277.60000000000002</v>
+        <v>149.4</v>
       </c>
       <c r="C10">
-        <v>9362</v>
+        <v>13394</v>
       </c>
       <c r="D10">
-        <v>-55.45</v>
+        <v>-48.15</v>
       </c>
       <c r="E10">
-        <v>-69.75</v>
+        <v>-82.45</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>10.07</v>
+        <v>9.52</v>
       </c>
       <c r="H10">
-        <v>7.11</v>
+        <v>3.61</v>
       </c>
       <c r="I10">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J10">
-        <v>12.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K10">
-        <v>44.28</v>
+        <v>36.72</v>
       </c>
       <c r="L10">
-        <v>-123.13</v>
+        <v>-123.1</v>
       </c>
       <c r="M10">
-        <v>49.51</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2922</v>
+        <v>4856</v>
       </c>
       <c r="B11">
-        <v>420.9</v>
+        <v>213.2</v>
       </c>
       <c r="C11">
-        <v>6620</v>
+        <v>11062</v>
       </c>
       <c r="D11">
-        <v>-37.450000000000003</v>
+        <v>-50.55</v>
       </c>
       <c r="E11">
-        <v>-45.15</v>
+        <v>-84.05</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>6.21</v>
+        <v>8.64</v>
       </c>
       <c r="H11">
-        <v>3.61</v>
+        <v>0.41</v>
       </c>
       <c r="I11">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="J11">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="K11">
-        <v>25.92</v>
+        <v>30.96</v>
       </c>
       <c r="L11">
-        <v>-123.21</v>
+        <v>-123.12</v>
       </c>
       <c r="M11">
-        <v>49.41</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>2544</v>
+        <v>4720</v>
       </c>
       <c r="B12">
-        <v>474.5</v>
+        <v>224.4</v>
       </c>
       <c r="C12">
-        <v>5780</v>
+        <v>10728</v>
       </c>
       <c r="D12">
-        <v>-30.75</v>
+        <v>-51.95</v>
       </c>
       <c r="E12">
-        <v>-55.65</v>
+        <v>-80.650000000000006</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>7.28</v>
+        <v>10.64</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>-0.2</v>
       </c>
       <c r="I12">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="J12">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="K12">
-        <v>29.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="L12">
-        <v>-123.22</v>
+        <v>-123.12</v>
       </c>
       <c r="M12">
-        <v>49.39</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>2470</v>
+        <v>4592</v>
       </c>
       <c r="B13">
-        <v>485</v>
+        <v>234.9</v>
       </c>
       <c r="C13">
-        <v>5624</v>
+        <v>10434</v>
       </c>
       <c r="D13">
-        <v>-29.55</v>
+        <v>-52.85</v>
       </c>
       <c r="E13">
-        <v>-46.15</v>
+        <v>-81.150000000000006</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>6.72</v>
+        <v>8.82</v>
       </c>
       <c r="H13">
-        <v>4.87</v>
+        <v>0.63</v>
       </c>
       <c r="I13">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="J13">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K13">
-        <v>29.88</v>
+        <v>31.68</v>
       </c>
       <c r="L13">
-        <v>-123.23</v>
+        <v>-123.12</v>
       </c>
       <c r="M13">
-        <v>49.39</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>2444</v>
+        <v>4270</v>
       </c>
       <c r="B14">
-        <v>488.8</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="C14">
-        <v>5569</v>
+        <v>9655</v>
       </c>
       <c r="D14">
-        <v>-29.35</v>
+        <v>-53.85</v>
       </c>
       <c r="E14">
-        <v>-50.95</v>
+        <v>-76.650000000000006</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>6.33</v>
+        <v>9.34</v>
       </c>
       <c r="H14">
-        <v>5.27</v>
+        <v>-1.26</v>
       </c>
       <c r="I14">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="J14">
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="K14">
-        <v>29.52</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="L14">
-        <v>-123.23</v>
+        <v>-123.13</v>
       </c>
       <c r="M14">
-        <v>49.38</v>
+        <v>49.52</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2378</v>
+        <v>4170</v>
       </c>
       <c r="B15">
-        <v>498.4</v>
+        <v>274.5</v>
       </c>
       <c r="C15">
-        <v>5429</v>
+        <v>9433</v>
       </c>
       <c r="D15">
-        <v>-28.85</v>
+        <v>-54.65</v>
       </c>
       <c r="E15">
-        <v>-45.95</v>
+        <v>-67.650000000000006</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>4.92</v>
+        <v>8.98</v>
       </c>
       <c r="H15">
-        <v>5.89</v>
+        <v>5.56</v>
       </c>
       <c r="I15">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J15">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="K15">
-        <v>27.72</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="L15">
-        <v>-123.23</v>
+        <v>-123.13</v>
       </c>
       <c r="M15">
-        <v>49.38</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>2306</v>
+        <v>4106</v>
       </c>
       <c r="B16">
-        <v>509.2</v>
+        <v>280.8</v>
       </c>
       <c r="C16">
-        <v>5276</v>
+        <v>9288</v>
       </c>
       <c r="D16">
-        <v>-27.75</v>
+        <v>-55.15</v>
       </c>
       <c r="E16">
-        <v>-52.85</v>
+        <v>-66.849999999999994</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>4.96</v>
+        <v>10.18</v>
       </c>
       <c r="H16">
-        <v>5.98</v>
+        <v>7.4</v>
       </c>
       <c r="I16">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="J16">
-        <v>7.8</v>
+        <v>12.6</v>
       </c>
       <c r="K16">
-        <v>28.08</v>
+        <v>45.36</v>
       </c>
       <c r="L16">
-        <v>-123.24</v>
+        <v>-123.14</v>
       </c>
       <c r="M16">
-        <v>49.38</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2160</v>
+        <v>4056</v>
       </c>
       <c r="B17">
-        <v>531.79999999999995</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="C17">
-        <v>4964</v>
+        <v>9172</v>
       </c>
       <c r="D17">
-        <v>-27.75</v>
+        <v>-54.85</v>
       </c>
       <c r="E17">
-        <v>-29.85</v>
+        <v>-65.75</v>
       </c>
       <c r="F17">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>7.64</v>
+        <v>10.23</v>
       </c>
       <c r="H17">
-        <v>9.61</v>
+        <v>8.6</v>
       </c>
       <c r="I17">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J17">
-        <v>12.3</v>
+        <v>13.4</v>
       </c>
       <c r="K17">
-        <v>44.28</v>
+        <v>48.24</v>
       </c>
       <c r="L17">
-        <v>-123.25</v>
+        <v>-123.14</v>
       </c>
       <c r="M17">
-        <v>49.37</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>886</v>
+        <v>4014</v>
       </c>
       <c r="B18">
-        <v>765.6</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="C18">
-        <v>2225</v>
+        <v>9073</v>
       </c>
       <c r="D18">
-        <v>-6.5499999999999501</v>
+        <v>-54.65</v>
       </c>
       <c r="E18">
-        <v>-9.4499999999999904</v>
+        <v>-71.45</v>
       </c>
       <c r="F18">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>8.39</v>
+        <v>11.16</v>
       </c>
       <c r="H18">
-        <v>-2.77</v>
+        <v>8.51</v>
       </c>
       <c r="I18">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="J18">
-        <v>8.8000000000000007</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>31.68</v>
+        <v>50.4</v>
       </c>
       <c r="L18">
-        <v>-123.31</v>
+        <v>-123.15</v>
       </c>
       <c r="M18">
-        <v>49.28</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>818</v>
+        <v>3604</v>
       </c>
       <c r="B19">
-        <v>780.6</v>
+        <v>336.2</v>
       </c>
       <c r="C19">
-        <v>2073</v>
+        <v>8128</v>
       </c>
       <c r="D19">
-        <v>-5.5499999999999501</v>
+        <v>-50.15</v>
       </c>
       <c r="E19">
-        <v>-12.05</v>
+        <v>-56.15</v>
       </c>
       <c r="F19">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>10.61</v>
+        <v>7.39</v>
       </c>
       <c r="H19">
-        <v>-3.38</v>
+        <v>3.46</v>
       </c>
       <c r="I19">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="J19">
-        <v>11.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K19">
-        <v>39.96</v>
+        <v>29.52</v>
       </c>
       <c r="L19">
-        <v>-123.3</v>
+        <v>-123.18</v>
       </c>
       <c r="M19">
-        <v>49.28</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>392</v>
+        <v>3452</v>
       </c>
       <c r="B20">
-        <v>875.4</v>
+        <v>356.4</v>
       </c>
       <c r="C20">
-        <v>1165</v>
+        <v>7743</v>
       </c>
       <c r="D20">
-        <v>0.25</v>
+        <v>-46.45</v>
       </c>
       <c r="E20">
-        <v>-13.65</v>
+        <v>-55.55</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20">
-        <v>3.15</v>
+        <v>8.31</v>
       </c>
       <c r="H20">
-        <v>-7.93</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I20">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="J20">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="K20">
-        <v>30.6</v>
+        <v>30.96</v>
       </c>
       <c r="L20">
-        <v>-123.27</v>
+        <v>-123.18</v>
       </c>
       <c r="M20">
-        <v>49.25</v>
+        <v>49.45</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>666</v>
+        <v>3262</v>
       </c>
       <c r="B21">
-        <v>812.3</v>
+        <v>378.1</v>
       </c>
       <c r="C21">
-        <v>1760</v>
+        <v>7350</v>
       </c>
       <c r="D21">
-        <v>-4.0499999999999501</v>
+        <v>-43.65</v>
       </c>
       <c r="E21">
-        <v>-8.1499999999999808</v>
+        <v>-50.15</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G21">
-        <v>6.89</v>
+        <v>8.75</v>
       </c>
       <c r="H21">
-        <v>-6.05</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I21">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="J21">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="K21">
-        <v>33.119999999999997</v>
+        <v>34.56</v>
       </c>
       <c r="L21">
-        <v>-123.29</v>
+        <v>-123.19</v>
       </c>
       <c r="M21">
-        <v>49.27</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>162</v>
+        <v>3044</v>
       </c>
       <c r="B22">
-        <v>946.5</v>
+        <v>404.2</v>
       </c>
       <c r="C22">
-        <v>534</v>
+        <v>6897</v>
       </c>
       <c r="D22">
-        <v>5.0500000000000096</v>
+        <v>-39.75</v>
       </c>
       <c r="E22">
-        <v>-7.4499999999999904</v>
+        <v>-47.95</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>-0.97</v>
+        <v>7.5</v>
       </c>
       <c r="H22">
-        <v>-4.6399999999999997</v>
+        <v>3.68</v>
       </c>
       <c r="I22">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="J22">
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="K22">
-        <v>16.920000000000002</v>
+        <v>30.24</v>
       </c>
       <c r="L22">
-        <v>-123.24</v>
+        <v>-123.2</v>
       </c>
       <c r="M22">
-        <v>49.25</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>140</v>
+        <v>3014</v>
       </c>
       <c r="B23">
-        <v>951.4</v>
+        <v>408.2</v>
       </c>
       <c r="C23">
-        <v>492</v>
+        <v>6829</v>
       </c>
       <c r="D23">
-        <v>3.6500000000000301</v>
+        <v>-39.15</v>
       </c>
       <c r="E23">
-        <v>-2.3499999999999699</v>
+        <v>-50.35</v>
       </c>
       <c r="F23">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>-1.18</v>
+        <v>6.75</v>
       </c>
       <c r="H23">
-        <v>-3.68</v>
+        <v>3.64</v>
       </c>
       <c r="I23">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="J23">
-        <v>3.9</v>
+        <v>7.7</v>
       </c>
       <c r="K23">
-        <v>14.04</v>
+        <v>27.72</v>
       </c>
       <c r="L23">
-        <v>-123.24</v>
+        <v>-123.2</v>
       </c>
       <c r="M23">
-        <v>49.25</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4</v>
+        <v>2920</v>
       </c>
       <c r="B24">
-        <v>998.3</v>
+        <v>421.1</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>6615</v>
       </c>
       <c r="D24">
-        <v>4.8500000000000201</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="E24">
-        <v>-1.25</v>
+        <v>-45.25</v>
       </c>
       <c r="F24">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G24">
-        <v>1.56</v>
+        <v>6.2</v>
       </c>
       <c r="H24">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="I24">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J24">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="K24">
-        <v>7.56</v>
+        <v>25.92</v>
       </c>
       <c r="L24">
-        <v>-123.24</v>
+        <v>-123.21</v>
       </c>
       <c r="M24">
-        <v>49.25</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>4086</v>
+        <v>2832</v>
       </c>
       <c r="B25">
-        <v>282.8</v>
+        <v>433.7</v>
       </c>
       <c r="C25">
-        <v>9241</v>
+        <v>6412</v>
       </c>
       <c r="D25">
-        <v>-55.15</v>
+        <v>-35.75</v>
       </c>
       <c r="E25">
-        <v>-67.75</v>
+        <v>-44.85</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>10.09</v>
+        <v>5.55</v>
       </c>
       <c r="H25">
-        <v>7.97</v>
+        <v>3.07</v>
       </c>
       <c r="I25">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J25">
-        <v>12.9</v>
+        <v>6.3</v>
       </c>
       <c r="K25">
-        <v>46.44</v>
+        <v>22.68</v>
       </c>
       <c r="L25">
-        <v>-123.14</v>
+        <v>-123.21</v>
       </c>
       <c r="M25">
-        <v>49.51</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>4058</v>
+        <v>2548</v>
       </c>
       <c r="B26">
-        <v>285.7</v>
+        <v>473.9</v>
       </c>
       <c r="C26">
-        <v>9177</v>
+        <v>5788</v>
       </c>
       <c r="D26">
-        <v>-54.85</v>
+        <v>-30.85</v>
       </c>
       <c r="E26">
-        <v>-65.650000000000006</v>
+        <v>-55.55</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>10.18</v>
+        <v>7.29</v>
       </c>
       <c r="H26">
-        <v>8.57</v>
+        <v>3.36</v>
       </c>
       <c r="I26">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="J26">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>47.88</v>
+        <v>28.8</v>
       </c>
       <c r="L26">
-        <v>-123.14</v>
+        <v>-123.22</v>
       </c>
       <c r="M26">
-        <v>49.5</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>4098</v>
+        <v>2446</v>
       </c>
       <c r="B27">
-        <v>281.60000000000002</v>
+        <v>488.5</v>
       </c>
       <c r="C27">
-        <v>9269</v>
+        <v>5573</v>
       </c>
       <c r="D27">
-        <v>-55.05</v>
+        <v>-29.45</v>
       </c>
       <c r="E27">
-        <v>-66.55</v>
+        <v>-50.75</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>10.16</v>
+        <v>6.34</v>
       </c>
       <c r="H27">
-        <v>7.64</v>
+        <v>5.22</v>
       </c>
       <c r="I27">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J27">
-        <v>12.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K27">
-        <v>45.72</v>
+        <v>29.52</v>
       </c>
       <c r="L27">
-        <v>-123.14</v>
+        <v>-123.23</v>
       </c>
       <c r="M27">
-        <v>49.51</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3998</v>
+        <v>2468</v>
       </c>
       <c r="B28">
-        <v>292.10000000000002</v>
+        <v>485.3</v>
       </c>
       <c r="C28">
-        <v>9035</v>
+        <v>5620</v>
       </c>
       <c r="D28">
+        <v>-29.55</v>
+      </c>
+      <c r="E28">
+        <v>-46.05</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>6.72</v>
+      </c>
+      <c r="H28">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I28">
+        <v>216</v>
+      </c>
+      <c r="J28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K28">
+        <v>29.88</v>
+      </c>
+      <c r="L28">
+        <v>-123.23</v>
+      </c>
+      <c r="M28">
+        <v>49.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2388</v>
+      </c>
+      <c r="B29">
+        <v>496.9</v>
+      </c>
+      <c r="C29">
+        <v>5451</v>
+      </c>
+      <c r="D29">
+        <v>-29.05</v>
+      </c>
+      <c r="E29">
+        <v>-46.05</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>5.16</v>
+      </c>
+      <c r="H29">
+        <v>5.9</v>
+      </c>
+      <c r="I29">
+        <v>229</v>
+      </c>
+      <c r="J29">
+        <v>7.8</v>
+      </c>
+      <c r="K29">
+        <v>28.08</v>
+      </c>
+      <c r="L29">
+        <v>-123.23</v>
+      </c>
+      <c r="M29">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2310</v>
+      </c>
+      <c r="B30">
+        <v>508.6</v>
+      </c>
+      <c r="C30">
+        <v>5284</v>
+      </c>
+      <c r="D30">
+        <v>-27.85</v>
+      </c>
+      <c r="E30">
+        <v>-52.85</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H30">
+        <v>6.02</v>
+      </c>
+      <c r="I30">
+        <v>231</v>
+      </c>
+      <c r="J30">
+        <v>7.8</v>
+      </c>
+      <c r="K30">
+        <v>28.08</v>
+      </c>
+      <c r="L30">
+        <v>-123.24</v>
+      </c>
+      <c r="M30">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2150</v>
+      </c>
+      <c r="B31">
+        <v>533.6</v>
+      </c>
+      <c r="C31">
+        <v>4939</v>
+      </c>
+      <c r="D31">
+        <v>-27.65</v>
+      </c>
+      <c r="E31">
+        <v>-29.75</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>7.88</v>
+      </c>
+      <c r="H31">
+        <v>9.57</v>
+      </c>
+      <c r="I31">
+        <v>231</v>
+      </c>
+      <c r="J31">
+        <v>12.4</v>
+      </c>
+      <c r="K31">
+        <v>44.64</v>
+      </c>
+      <c r="L31">
+        <v>-123.26</v>
+      </c>
+      <c r="M31">
+        <v>49.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1592</v>
+      </c>
+      <c r="B32">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="C32">
+        <v>3700</v>
+      </c>
+      <c r="D32">
+        <v>-16.95</v>
+      </c>
+      <c r="E32">
+        <v>-22.05</v>
+      </c>
+      <c r="F32">
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>6.62</v>
+      </c>
+      <c r="H32">
+        <v>1.55</v>
+      </c>
+      <c r="I32">
+        <v>193</v>
+      </c>
+      <c r="J32">
+        <v>6.8</v>
+      </c>
+      <c r="K32">
+        <v>24.48</v>
+      </c>
+      <c r="L32">
+        <v>-123.3</v>
+      </c>
+      <c r="M32">
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1430</v>
+      </c>
+      <c r="B33">
+        <v>661.2</v>
+      </c>
+      <c r="C33">
+        <v>3355</v>
+      </c>
+      <c r="D33">
+        <v>-13.85</v>
+      </c>
+      <c r="E33">
+        <v>-22.05</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>6.95</v>
+      </c>
+      <c r="H33">
+        <v>-0.13</v>
+      </c>
+      <c r="I33">
+        <v>179</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>25.2</v>
+      </c>
+      <c r="L33">
+        <v>-123.31</v>
+      </c>
+      <c r="M33">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1114</v>
+      </c>
+      <c r="B34">
+        <v>718.6</v>
+      </c>
+      <c r="C34">
+        <v>2717</v>
+      </c>
+      <c r="D34">
+        <v>-9.5499999999999599</v>
+      </c>
+      <c r="E34">
+        <v>-12.55</v>
+      </c>
+      <c r="F34">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>7.16</v>
+      </c>
+      <c r="H34">
+        <v>0.69</v>
+      </c>
+      <c r="I34">
+        <v>186</v>
+      </c>
+      <c r="J34">
+        <v>7.2</v>
+      </c>
+      <c r="K34">
+        <v>25.92</v>
+      </c>
+      <c r="L34">
+        <v>-123.31</v>
+      </c>
+      <c r="M34">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1086</v>
+      </c>
+      <c r="B35">
+        <v>724.3</v>
+      </c>
+      <c r="C35">
+        <v>2656</v>
+      </c>
+      <c r="D35">
+        <v>-9.1499999999999808</v>
+      </c>
+      <c r="E35">
+        <v>-13.45</v>
+      </c>
+      <c r="F35">
+        <v>71</v>
+      </c>
+      <c r="G35">
+        <v>7.2</v>
+      </c>
+      <c r="H35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I35">
+        <v>184</v>
+      </c>
+      <c r="J35">
+        <v>7.2</v>
+      </c>
+      <c r="K35">
+        <v>25.92</v>
+      </c>
+      <c r="L35">
+        <v>-123.31</v>
+      </c>
+      <c r="M35">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>880</v>
+      </c>
+      <c r="B36">
+        <v>766.8</v>
+      </c>
+      <c r="C36">
+        <v>2212</v>
+      </c>
+      <c r="D36">
+        <v>-6.5499999999999501</v>
+      </c>
+      <c r="E36">
+        <v>-9.25</v>
+      </c>
+      <c r="F36">
+        <v>81</v>
+      </c>
+      <c r="G36">
+        <v>8.57</v>
+      </c>
+      <c r="H36">
+        <v>-2.89</v>
+      </c>
+      <c r="I36">
+        <v>161</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>32.4</v>
+      </c>
+      <c r="L36">
+        <v>-123.31</v>
+      </c>
+      <c r="M36">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>822</v>
+      </c>
+      <c r="B37">
+        <v>779.8</v>
+      </c>
+      <c r="C37">
+        <v>2081</v>
+      </c>
+      <c r="D37">
+        <v>-5.6499999999999799</v>
+      </c>
+      <c r="E37">
+        <v>-11.95</v>
+      </c>
+      <c r="F37">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>10.57</v>
+      </c>
+      <c r="H37">
+        <v>-3.34</v>
+      </c>
+      <c r="I37">
+        <v>162</v>
+      </c>
+      <c r="J37">
+        <v>11.1</v>
+      </c>
+      <c r="K37">
+        <v>39.96</v>
+      </c>
+      <c r="L37">
+        <v>-123.3</v>
+      </c>
+      <c r="M37">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>662</v>
+      </c>
+      <c r="B38">
+        <v>813.1</v>
+      </c>
+      <c r="C38">
+        <v>1752</v>
+      </c>
+      <c r="D38">
+        <v>-3.94999999999999</v>
+      </c>
+      <c r="E38">
+        <v>-8.25</v>
+      </c>
+      <c r="F38">
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>6.86</v>
+      </c>
+      <c r="H38">
+        <v>-6.06</v>
+      </c>
+      <c r="I38">
+        <v>139</v>
+      </c>
+      <c r="J38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K38">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="L38">
+        <v>-123.29</v>
+      </c>
+      <c r="M38">
+        <v>49.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>999.8</v>
+      </c>
+      <c r="C39">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="E39">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>-12.34</v>
+      </c>
+      <c r="H39">
+        <v>-0.43</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>12.3</v>
+      </c>
+      <c r="K39">
+        <v>44.28</v>
+      </c>
+      <c r="L39">
+        <v>-123.24</v>
+      </c>
+      <c r="M39">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>998.3</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="E40">
+        <v>-1.25</v>
+      </c>
+      <c r="F40">
+        <v>64</v>
+      </c>
+      <c r="G40">
+        <v>1.56</v>
+      </c>
+      <c r="H40">
+        <v>1.38</v>
+      </c>
+      <c r="I40">
+        <v>221</v>
+      </c>
+      <c r="J40">
+        <v>2.1</v>
+      </c>
+      <c r="K40">
+        <v>7.56</v>
+      </c>
+      <c r="L40">
+        <v>-123.24</v>
+      </c>
+      <c r="M40">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>970.7</v>
+      </c>
+      <c r="C41">
+        <v>329</v>
+      </c>
+      <c r="D41">
+        <v>4.3500000000000201</v>
+      </c>
+      <c r="E41">
+        <v>-0.849999999999966</v>
+      </c>
+      <c r="F41">
+        <v>69</v>
+      </c>
+      <c r="G41">
+        <v>-0.11</v>
+      </c>
+      <c r="H41">
+        <v>-0.47</v>
+      </c>
+      <c r="I41">
+        <v>360</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>1.8</v>
+      </c>
+      <c r="L41">
+        <v>-123.24</v>
+      </c>
+      <c r="M41">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>951.4</v>
+      </c>
+      <c r="C42">
+        <v>492</v>
+      </c>
+      <c r="D42">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="E42">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="F42">
+        <v>65</v>
+      </c>
+      <c r="G42">
+        <v>-1.18</v>
+      </c>
+      <c r="H42">
+        <v>-3.68</v>
+      </c>
+      <c r="I42">
+        <v>72</v>
+      </c>
+      <c r="J42">
+        <v>3.9</v>
+      </c>
+      <c r="K42">
+        <v>14.04</v>
+      </c>
+      <c r="L42">
+        <v>-123.24</v>
+      </c>
+      <c r="M42">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>178</v>
+      </c>
+      <c r="B43">
+        <v>942</v>
+      </c>
+      <c r="C43">
+        <v>573</v>
+      </c>
+      <c r="D43">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="E43">
+        <v>-8.25</v>
+      </c>
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>-0.69</v>
+      </c>
+      <c r="H43">
+        <v>-5.18</v>
+      </c>
+      <c r="I43">
+        <v>82</v>
+      </c>
+      <c r="J43">
+        <v>5.2</v>
+      </c>
+      <c r="K43">
+        <v>18.72</v>
+      </c>
+      <c r="L43">
+        <v>-123.24</v>
+      </c>
+      <c r="M43">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>394</v>
+      </c>
+      <c r="B44">
+        <v>875</v>
+      </c>
+      <c r="C44">
+        <v>1170</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+      <c r="E44">
+        <v>-13.65</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>3.16</v>
+      </c>
+      <c r="H44">
+        <v>-7.91</v>
+      </c>
+      <c r="I44">
+        <v>112</v>
+      </c>
+      <c r="J44">
+        <v>8.5</v>
+      </c>
+      <c r="K44">
+        <v>30.6</v>
+      </c>
+      <c r="L44">
+        <v>-123.27</v>
+      </c>
+      <c r="M44">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>632</v>
+      </c>
+      <c r="B45">
+        <v>819.2</v>
+      </c>
+      <c r="C45">
+        <v>1693</v>
+      </c>
+      <c r="D45">
+        <v>-3.5499999999999501</v>
+      </c>
+      <c r="E45">
+        <v>-9.8499999999999694</v>
+      </c>
+      <c r="F45">
+        <v>62</v>
+      </c>
+      <c r="G45">
+        <v>6.92</v>
+      </c>
+      <c r="H45">
+        <v>-6.11</v>
+      </c>
+      <c r="I45">
+        <v>139</v>
+      </c>
+      <c r="J45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K45">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="L45">
+        <v>-123.29</v>
+      </c>
+      <c r="M45">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>530</v>
+      </c>
+      <c r="B46">
+        <v>842.4</v>
+      </c>
+      <c r="C46">
+        <v>1472</v>
+      </c>
+      <c r="D46">
+        <v>-2.1499999999999799</v>
+      </c>
+      <c r="E46">
+        <v>-9.3499999999999694</v>
+      </c>
+      <c r="F46">
+        <v>58</v>
+      </c>
+      <c r="G46">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H46">
+        <v>-6.92</v>
+      </c>
+      <c r="I46">
+        <v>125</v>
+      </c>
+      <c r="J46">
+        <v>8.5</v>
+      </c>
+      <c r="K46">
+        <v>30.6</v>
+      </c>
+      <c r="L46">
+        <v>-123.28</v>
+      </c>
+      <c r="M46">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>999.8</v>
+      </c>
+      <c r="C60">
+        <v>88</v>
+      </c>
+      <c r="D60">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="E60">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="F60">
+        <v>80</v>
+      </c>
+      <c r="G60">
+        <v>-12.34</v>
+      </c>
+      <c r="H60">
+        <v>-0.43</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>12.3</v>
+      </c>
+      <c r="K60">
+        <v>44.28</v>
+      </c>
+      <c r="L60">
+        <v>-123.24</v>
+      </c>
+      <c r="M60">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>995.7</v>
+      </c>
+      <c r="C61">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <v>5.0500000000000096</v>
+      </c>
+      <c r="E61">
+        <v>-0.75</v>
+      </c>
+      <c r="F61">
+        <v>66</v>
+      </c>
+      <c r="G61">
+        <v>2.17</v>
+      </c>
+      <c r="H61">
+        <v>2.39</v>
+      </c>
+      <c r="I61">
+        <v>228</v>
+      </c>
+      <c r="J61">
+        <v>3.2</v>
+      </c>
+      <c r="K61">
+        <v>11.52</v>
+      </c>
+      <c r="L61">
+        <v>-123.24</v>
+      </c>
+      <c r="M61">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>138</v>
+      </c>
+      <c r="B62">
+        <v>951.8</v>
+      </c>
+      <c r="C62">
+        <v>489</v>
+      </c>
+      <c r="D62">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="E62">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="F62">
+        <v>64</v>
+      </c>
+      <c r="G62">
+        <v>-1.21</v>
+      </c>
+      <c r="H62">
+        <v>-3.51</v>
+      </c>
+      <c r="I62">
+        <v>71</v>
+      </c>
+      <c r="J62">
+        <v>3.7</v>
+      </c>
+      <c r="K62">
+        <v>13.32</v>
+      </c>
+      <c r="L62">
+        <v>-123.24</v>
+      </c>
+      <c r="M62">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <v>947</v>
+      </c>
+      <c r="C63">
+        <v>530</v>
+      </c>
+      <c r="D63">
+        <v>5.1500000000000297</v>
+      </c>
+      <c r="E63">
+        <v>-7.25</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <v>-0.99</v>
+      </c>
+      <c r="H63">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I63">
+        <v>78</v>
+      </c>
+      <c r="J63">
+        <v>4.7</v>
+      </c>
+      <c r="K63">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L63">
+        <v>-123.24</v>
+      </c>
+      <c r="M63">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2164</v>
+      </c>
+      <c r="B64">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="C64">
+        <v>4972</v>
+      </c>
+      <c r="D64">
+        <v>-27.85</v>
+      </c>
+      <c r="E64">
+        <v>-29.95</v>
+      </c>
+      <c r="F64">
+        <v>82</v>
+      </c>
+      <c r="G64">
+        <v>7.7</v>
+      </c>
+      <c r="H64">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I64">
+        <v>231</v>
+      </c>
+      <c r="J64">
+        <v>12.3</v>
+      </c>
+      <c r="K64">
+        <v>44.28</v>
+      </c>
+      <c r="L64">
+        <v>-123.25</v>
+      </c>
+      <c r="M64">
+        <v>49.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2316</v>
+      </c>
+      <c r="B65">
+        <v>507.7</v>
+      </c>
+      <c r="C65">
+        <v>5296</v>
+      </c>
+      <c r="D65">
+        <v>-27.85</v>
+      </c>
+      <c r="E65">
+        <v>-52.35</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>4.79</v>
+      </c>
+      <c r="H65">
+        <v>6.1</v>
+      </c>
+      <c r="I65">
+        <v>232</v>
+      </c>
+      <c r="J65">
+        <v>7.8</v>
+      </c>
+      <c r="K65">
+        <v>28.08</v>
+      </c>
+      <c r="L65">
+        <v>-123.24</v>
+      </c>
+      <c r="M65">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>4776</v>
+      </c>
+      <c r="B66">
+        <v>219.8</v>
+      </c>
+      <c r="C66">
+        <v>10862</v>
+      </c>
+      <c r="D66">
+        <v>-50.25</v>
+      </c>
+      <c r="E66">
+        <v>-82.25</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>7.2</v>
+      </c>
+      <c r="H66">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I66">
+        <v>184</v>
+      </c>
+      <c r="J66">
+        <v>7.2</v>
+      </c>
+      <c r="K66">
+        <v>25.92</v>
+      </c>
+      <c r="L66">
+        <v>-123.12</v>
+      </c>
+      <c r="M66">
+        <v>49.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>4146</v>
+      </c>
+      <c r="B67">
+        <v>276.8</v>
+      </c>
+      <c r="C67">
+        <v>9379</v>
+      </c>
+      <c r="D67">
+        <v>-55.25</v>
+      </c>
+      <c r="E67">
+        <v>-69.349999999999994</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <v>9.86</v>
+      </c>
+      <c r="H67">
+        <v>6.97</v>
+      </c>
+      <c r="I67">
+        <v>215</v>
+      </c>
+      <c r="J67">
+        <v>12.1</v>
+      </c>
+      <c r="K67">
+        <v>43.56</v>
+      </c>
+      <c r="L67">
+        <v>-123.13</v>
+      </c>
+      <c r="M67">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>5778</v>
+      </c>
+      <c r="B68">
+        <v>151.4</v>
+      </c>
+      <c r="C68">
+        <v>13305</v>
+      </c>
+      <c r="D68">
+        <v>-48.25</v>
+      </c>
+      <c r="E68">
+        <v>-82.55</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>8.65</v>
+      </c>
+      <c r="H68">
+        <v>2.73</v>
+      </c>
+      <c r="I68">
+        <v>198</v>
+      </c>
+      <c r="J68">
+        <v>9.1</v>
+      </c>
+      <c r="K68">
+        <v>32.76</v>
+      </c>
+      <c r="L68">
+        <v>-123.1</v>
+      </c>
+      <c r="M68">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>6178</v>
+      </c>
+      <c r="B69">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="C69">
+        <v>14366</v>
+      </c>
+      <c r="D69">
+        <v>-51.65</v>
+      </c>
+      <c r="E69">
+        <v>-84.95</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H69">
+        <v>1.73</v>
+      </c>
+      <c r="I69">
+        <v>191</v>
+      </c>
+      <c r="J69">
+        <v>8.9</v>
+      </c>
+      <c r="K69">
+        <v>32.04</v>
+      </c>
+      <c r="L69">
+        <v>-123.09</v>
+      </c>
+      <c r="M69">
+        <v>49.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>6938</v>
+      </c>
+      <c r="B70">
+        <v>94.8</v>
+      </c>
+      <c r="C70">
+        <v>16355</v>
+      </c>
+      <c r="D70">
+        <v>-50.35</v>
+      </c>
+      <c r="E70">
+        <v>-84.05</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>10.74</v>
+      </c>
+      <c r="H70">
+        <v>3.57</v>
+      </c>
+      <c r="I70">
+        <v>198</v>
+      </c>
+      <c r="J70">
+        <v>11.3</v>
+      </c>
+      <c r="K70">
+        <v>40.68</v>
+      </c>
+      <c r="L70">
+        <v>-123.06</v>
+      </c>
+      <c r="M70">
+        <v>49.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>7590</v>
+      </c>
+      <c r="B71">
+        <v>72.2</v>
+      </c>
+      <c r="C71">
+        <v>18115</v>
+      </c>
+      <c r="D71">
         <v>-54.45</v>
       </c>
-      <c r="E28">
-        <v>-71.650000000000006</v>
-      </c>
-      <c r="F28">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>10.89</v>
-      </c>
-      <c r="H28">
-        <v>8.91</v>
-      </c>
-      <c r="I28">
-        <v>219</v>
-      </c>
-      <c r="J28">
-        <v>14.1</v>
-      </c>
-      <c r="K28">
-        <v>50.76</v>
-      </c>
-      <c r="L28">
-        <v>-123.15</v>
-      </c>
-      <c r="M28">
-        <v>49.5</v>
+      <c r="E71">
+        <v>-86.85</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>6.8</v>
+      </c>
+      <c r="H71">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I71">
+        <v>190</v>
+      </c>
+      <c r="J71">
+        <v>6.9</v>
+      </c>
+      <c r="K71">
+        <v>24.84</v>
+      </c>
+      <c r="L71">
+        <v>-123.03</v>
+      </c>
+      <c r="M71">
+        <v>49.74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>8318</v>
+      </c>
+      <c r="B72">
+        <v>53.7</v>
+      </c>
+      <c r="C72">
+        <v>20027</v>
+      </c>
+      <c r="D72">
+        <v>-50.05</v>
+      </c>
+      <c r="E72">
+        <v>-83.85</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2.42</v>
+      </c>
+      <c r="H72">
+        <v>-3.31</v>
+      </c>
+      <c r="I72">
+        <v>126</v>
+      </c>
+      <c r="J72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K72">
+        <v>14.76</v>
+      </c>
+      <c r="L72">
+        <v>-123.01</v>
+      </c>
+      <c r="M72">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>8584</v>
+      </c>
+      <c r="B73">
+        <v>47.9</v>
+      </c>
+      <c r="C73">
+        <v>20763</v>
+      </c>
+      <c r="D73">
+        <v>-52.15</v>
+      </c>
+      <c r="E73">
+        <v>-85.25</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>3.25</v>
+      </c>
+      <c r="H73">
+        <v>-6.21</v>
+      </c>
+      <c r="I73">
+        <v>118</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>25.2</v>
+      </c>
+      <c r="L73">
+        <v>-123.02</v>
+      </c>
+      <c r="M73">
+        <v>49.76</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 12/Problem 1.xlsx
+++ b/Lab 12/Problem 1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795DBDA-3101-44B1-99AA-22D498D08A51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBC0F4-A104-4181-A415-CEA6A335B04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>T significant points</t>
   </si>
@@ -98,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FA0A38-7381-4D8C-A322-E2EF3CC535BA}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3312,4 +3320,7531 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F21E4A-1651-40F7-846A-B0D6ABB84AC2}">
+  <dimension ref="A1:V61"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:V61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>47.9</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>-55.15</v>
+      </c>
+      <c r="E2">
+        <v>-86.85</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-12.34</v>
+      </c>
+      <c r="H2">
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>1.8</v>
+      </c>
+      <c r="L2">
+        <v>-123.31</v>
+      </c>
+      <c r="M2">
+        <v>49.25</v>
+      </c>
+      <c r="Q2">
+        <v>47.9</v>
+      </c>
+      <c r="R2">
+        <v>88</v>
+      </c>
+      <c r="S2">
+        <v>-55.15</v>
+      </c>
+      <c r="T2">
+        <v>-86.85</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>48.1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>-54.85</v>
+      </c>
+      <c r="E3">
+        <v>-85.45</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-12.34</v>
+      </c>
+      <c r="H3">
+        <v>-7.91</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2.1</v>
+      </c>
+      <c r="K3">
+        <v>7.56</v>
+      </c>
+      <c r="L3">
+        <v>-123.31</v>
+      </c>
+      <c r="M3">
+        <v>49.25</v>
+      </c>
+      <c r="Q3">
+        <v>48.1</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>-54.85</v>
+      </c>
+      <c r="T3">
+        <v>-85.45</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>52.8</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>-54.65</v>
+      </c>
+      <c r="E4">
+        <v>-85.25</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-1.21</v>
+      </c>
+      <c r="H4">
+        <v>-7.39</v>
+      </c>
+      <c r="I4">
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <v>3.2</v>
+      </c>
+      <c r="K4">
+        <v>11.52</v>
+      </c>
+      <c r="L4">
+        <v>-123.31</v>
+      </c>
+      <c r="M4">
+        <v>49.25</v>
+      </c>
+      <c r="Q4">
+        <v>52.8</v>
+      </c>
+      <c r="R4">
+        <v>121</v>
+      </c>
+      <c r="S4">
+        <v>-54.65</v>
+      </c>
+      <c r="T4">
+        <v>-85.25</v>
+      </c>
+      <c r="U4">
+        <v>71</v>
+      </c>
+      <c r="V4">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>53.7</v>
+      </c>
+      <c r="C5">
+        <v>329</v>
+      </c>
+      <c r="D5">
+        <v>-54.65</v>
+      </c>
+      <c r="E5">
+        <v>-85.25</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1.18</v>
+      </c>
+      <c r="H5">
+        <v>-6.92</v>
+      </c>
+      <c r="I5">
+        <v>72</v>
+      </c>
+      <c r="J5">
+        <v>3.7</v>
+      </c>
+      <c r="K5">
+        <v>13.32</v>
+      </c>
+      <c r="L5">
+        <v>-123.31</v>
+      </c>
+      <c r="M5">
+        <v>49.25</v>
+      </c>
+      <c r="Q5">
+        <v>53.7</v>
+      </c>
+      <c r="R5">
+        <v>329</v>
+      </c>
+      <c r="S5">
+        <v>-54.65</v>
+      </c>
+      <c r="T5">
+        <v>-85.25</v>
+      </c>
+      <c r="U5">
+        <v>72</v>
+      </c>
+      <c r="V5">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>138</v>
+      </c>
+      <c r="B6">
+        <v>71.8</v>
+      </c>
+      <c r="C6">
+        <v>489</v>
+      </c>
+      <c r="D6">
+        <v>-54.45</v>
+      </c>
+      <c r="E6">
+        <v>-84.95</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-0.99</v>
+      </c>
+      <c r="H6">
+        <v>-6.21</v>
+      </c>
+      <c r="I6">
+        <v>78</v>
+      </c>
+      <c r="J6">
+        <v>3.9</v>
+      </c>
+      <c r="K6">
+        <v>14.04</v>
+      </c>
+      <c r="L6">
+        <v>-123.31</v>
+      </c>
+      <c r="M6">
+        <v>49.25</v>
+      </c>
+      <c r="Q6">
+        <v>71.8</v>
+      </c>
+      <c r="R6">
+        <v>489</v>
+      </c>
+      <c r="S6">
+        <v>-54.45</v>
+      </c>
+      <c r="T6">
+        <v>-84.95</v>
+      </c>
+      <c r="U6">
+        <v>78</v>
+      </c>
+      <c r="V6">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>140</v>
+      </c>
+      <c r="B7">
+        <v>72.2</v>
+      </c>
+      <c r="C7">
+        <v>492</v>
+      </c>
+      <c r="D7">
+        <v>-54.45</v>
+      </c>
+      <c r="E7">
+        <v>-84.95</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-0.69</v>
+      </c>
+      <c r="H7">
+        <v>-6.11</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K7">
+        <v>14.76</v>
+      </c>
+      <c r="L7">
+        <v>-123.31</v>
+      </c>
+      <c r="M7">
+        <v>49.25</v>
+      </c>
+      <c r="Q7">
+        <v>72.2</v>
+      </c>
+      <c r="R7">
+        <v>492</v>
+      </c>
+      <c r="S7">
+        <v>-54.45</v>
+      </c>
+      <c r="T7">
+        <v>-84.95</v>
+      </c>
+      <c r="U7">
+        <v>82</v>
+      </c>
+      <c r="V7">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <v>94.7</v>
+      </c>
+      <c r="C8">
+        <v>530</v>
+      </c>
+      <c r="D8">
+        <v>-53.85</v>
+      </c>
+      <c r="E8">
+        <v>-84.05</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-0.11</v>
+      </c>
+      <c r="H8">
+        <v>-6.06</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>4.7</v>
+      </c>
+      <c r="K8">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L8">
+        <v>-123.3</v>
+      </c>
+      <c r="M8">
+        <v>49.25</v>
+      </c>
+      <c r="Q8">
+        <v>94.7</v>
+      </c>
+      <c r="R8">
+        <v>530</v>
+      </c>
+      <c r="S8">
+        <v>-53.85</v>
+      </c>
+      <c r="T8">
+        <v>-84.05</v>
+      </c>
+      <c r="U8">
+        <v>95</v>
+      </c>
+      <c r="V8">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>94.8</v>
+      </c>
+      <c r="C9">
+        <v>573</v>
+      </c>
+      <c r="D9">
+        <v>-52.85</v>
+      </c>
+      <c r="E9">
+        <v>-84.05</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
+      <c r="H9">
+        <v>-5.92</v>
+      </c>
+      <c r="I9">
+        <v>112</v>
+      </c>
+      <c r="J9">
+        <v>5.2</v>
+      </c>
+      <c r="K9">
+        <v>18.72</v>
+      </c>
+      <c r="L9">
+        <v>-123.3</v>
+      </c>
+      <c r="M9">
+        <v>49.25</v>
+      </c>
+      <c r="Q9">
+        <v>94.8</v>
+      </c>
+      <c r="R9">
+        <v>573</v>
+      </c>
+      <c r="S9">
+        <v>-52.85</v>
+      </c>
+      <c r="T9">
+        <v>-84.05</v>
+      </c>
+      <c r="U9">
+        <v>112</v>
+      </c>
+      <c r="V9">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>262</v>
+      </c>
+      <c r="B10">
+        <v>126.6</v>
+      </c>
+      <c r="C10">
+        <v>797</v>
+      </c>
+      <c r="D10">
+        <v>-52.35</v>
+      </c>
+      <c r="E10">
+        <v>-84.05</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.56</v>
+      </c>
+      <c r="H10">
+        <v>-5.18</v>
+      </c>
+      <c r="I10">
+        <v>118</v>
+      </c>
+      <c r="J10">
+        <v>6.3</v>
+      </c>
+      <c r="K10">
+        <v>22.68</v>
+      </c>
+      <c r="L10">
+        <v>-123.29</v>
+      </c>
+      <c r="M10">
+        <v>49.25</v>
+      </c>
+      <c r="Q10">
+        <v>126.6</v>
+      </c>
+      <c r="R10">
+        <v>797</v>
+      </c>
+      <c r="S10">
+        <v>-52.35</v>
+      </c>
+      <c r="T10">
+        <v>-84.05</v>
+      </c>
+      <c r="U10">
+        <v>118</v>
+      </c>
+      <c r="V10">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>394</v>
+      </c>
+      <c r="B11">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1170</v>
+      </c>
+      <c r="D11">
+        <v>-52.15</v>
+      </c>
+      <c r="E11">
+        <v>-84.05</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.17</v>
+      </c>
+      <c r="H11">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I11">
+        <v>119</v>
+      </c>
+      <c r="J11">
+        <v>6.5</v>
+      </c>
+      <c r="K11">
+        <v>23.4</v>
+      </c>
+      <c r="L11">
+        <v>-123.29</v>
+      </c>
+      <c r="M11">
+        <v>49.25</v>
+      </c>
+      <c r="Q11">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="R11">
+        <v>1170</v>
+      </c>
+      <c r="S11">
+        <v>-52.15</v>
+      </c>
+      <c r="T11">
+        <v>-84.05</v>
+      </c>
+      <c r="U11">
+        <v>119</v>
+      </c>
+      <c r="V11">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>498</v>
+      </c>
+      <c r="B12">
+        <v>149.4</v>
+      </c>
+      <c r="C12">
+        <v>1399</v>
+      </c>
+      <c r="D12">
+        <v>-52.15</v>
+      </c>
+      <c r="E12">
+        <v>-83.85</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.42</v>
+      </c>
+      <c r="H12">
+        <v>-4.57</v>
+      </c>
+      <c r="I12">
+        <v>119</v>
+      </c>
+      <c r="J12">
+        <v>6.8</v>
+      </c>
+      <c r="K12">
+        <v>24.48</v>
+      </c>
+      <c r="L12">
+        <v>-123.28</v>
+      </c>
+      <c r="M12">
+        <v>49.25</v>
+      </c>
+      <c r="Q12">
+        <v>149.4</v>
+      </c>
+      <c r="R12">
+        <v>1399</v>
+      </c>
+      <c r="S12">
+        <v>-52.15</v>
+      </c>
+      <c r="T12">
+        <v>-83.85</v>
+      </c>
+      <c r="U12">
+        <v>119</v>
+      </c>
+      <c r="V12">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>530</v>
+      </c>
+      <c r="B13">
+        <v>151.4</v>
+      </c>
+      <c r="C13">
+        <v>1472</v>
+      </c>
+      <c r="D13">
+        <v>-51.95</v>
+      </c>
+      <c r="E13">
+        <v>-82.55</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.16</v>
+      </c>
+      <c r="H13">
+        <v>-3.68</v>
+      </c>
+      <c r="I13">
+        <v>125</v>
+      </c>
+      <c r="J13">
+        <v>6.8</v>
+      </c>
+      <c r="K13">
+        <v>24.48</v>
+      </c>
+      <c r="L13">
+        <v>-123.28</v>
+      </c>
+      <c r="M13">
+        <v>49.26</v>
+      </c>
+      <c r="Q13">
+        <v>151.4</v>
+      </c>
+      <c r="R13">
+        <v>1472</v>
+      </c>
+      <c r="S13">
+        <v>-51.95</v>
+      </c>
+      <c r="T13">
+        <v>-82.55</v>
+      </c>
+      <c r="U13">
+        <v>125</v>
+      </c>
+      <c r="V13">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>632</v>
+      </c>
+      <c r="B14">
+        <v>213.2</v>
+      </c>
+      <c r="C14">
+        <v>1693</v>
+      </c>
+      <c r="D14">
+        <v>-51.65</v>
+      </c>
+      <c r="E14">
+        <v>-82.45</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.25</v>
+      </c>
+      <c r="H14">
+        <v>-3.51</v>
+      </c>
+      <c r="I14">
+        <v>126</v>
+      </c>
+      <c r="J14">
+        <v>6.9</v>
+      </c>
+      <c r="K14">
+        <v>24.84</v>
+      </c>
+      <c r="L14">
+        <v>-123.27</v>
+      </c>
+      <c r="M14">
+        <v>49.26</v>
+      </c>
+      <c r="Q14">
+        <v>213.2</v>
+      </c>
+      <c r="R14">
+        <v>1693</v>
+      </c>
+      <c r="S14">
+        <v>-51.65</v>
+      </c>
+      <c r="T14">
+        <v>-82.45</v>
+      </c>
+      <c r="U14">
+        <v>126</v>
+      </c>
+      <c r="V14">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>662</v>
+      </c>
+      <c r="B15">
+        <v>219.8</v>
+      </c>
+      <c r="C15">
+        <v>1752</v>
+      </c>
+      <c r="D15">
+        <v>-51.65</v>
+      </c>
+      <c r="E15">
+        <v>-82.25</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.32</v>
+      </c>
+      <c r="H15">
+        <v>-3.34</v>
+      </c>
+      <c r="I15">
+        <v>135</v>
+      </c>
+      <c r="J15">
+        <v>6.9</v>
+      </c>
+      <c r="K15">
+        <v>24.84</v>
+      </c>
+      <c r="L15">
+        <v>-123.26</v>
+      </c>
+      <c r="M15">
+        <v>49.26</v>
+      </c>
+      <c r="Q15">
+        <v>219.8</v>
+      </c>
+      <c r="R15">
+        <v>1752</v>
+      </c>
+      <c r="S15">
+        <v>-51.65</v>
+      </c>
+      <c r="T15">
+        <v>-82.25</v>
+      </c>
+      <c r="U15">
+        <v>135</v>
+      </c>
+      <c r="V15">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>822</v>
+      </c>
+      <c r="B16">
+        <v>224.4</v>
+      </c>
+      <c r="C16">
+        <v>2081</v>
+      </c>
+      <c r="D16">
+        <v>-50.55</v>
+      </c>
+      <c r="E16">
+        <v>-81.150000000000006</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H16">
+        <v>-3.31</v>
+      </c>
+      <c r="I16">
+        <v>139</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>25.2</v>
+      </c>
+      <c r="L16">
+        <v>-123.25</v>
+      </c>
+      <c r="M16">
+        <v>49.27</v>
+      </c>
+      <c r="Q16">
+        <v>224.4</v>
+      </c>
+      <c r="R16">
+        <v>2081</v>
+      </c>
+      <c r="S16">
+        <v>-50.55</v>
+      </c>
+      <c r="T16">
+        <v>-81.150000000000006</v>
+      </c>
+      <c r="U16">
+        <v>139</v>
+      </c>
+      <c r="V16">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>880</v>
+      </c>
+      <c r="B17">
+        <v>234.9</v>
+      </c>
+      <c r="C17">
+        <v>2212</v>
+      </c>
+      <c r="D17">
+        <v>-50.45</v>
+      </c>
+      <c r="E17">
+        <v>-80.650000000000006</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H17">
+        <v>-2.89</v>
+      </c>
+      <c r="I17">
+        <v>139</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>25.2</v>
+      </c>
+      <c r="L17">
+        <v>-123.25</v>
+      </c>
+      <c r="M17">
+        <v>49.28</v>
+      </c>
+      <c r="Q17">
+        <v>234.9</v>
+      </c>
+      <c r="R17">
+        <v>2212</v>
+      </c>
+      <c r="S17">
+        <v>-50.45</v>
+      </c>
+      <c r="T17">
+        <v>-80.650000000000006</v>
+      </c>
+      <c r="U17">
+        <v>139</v>
+      </c>
+      <c r="V17">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>890</v>
+      </c>
+      <c r="B18">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="C18">
+        <v>2233</v>
+      </c>
+      <c r="D18">
+        <v>-50.35</v>
+      </c>
+      <c r="E18">
+        <v>-76.650000000000006</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>4.79</v>
+      </c>
+      <c r="H18">
+        <v>-2.7</v>
+      </c>
+      <c r="I18">
+        <v>161</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>25.2</v>
+      </c>
+      <c r="L18">
+        <v>-123.24</v>
+      </c>
+      <c r="M18">
+        <v>49.28</v>
+      </c>
+      <c r="Q18">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="R18">
+        <v>2233</v>
+      </c>
+      <c r="S18">
+        <v>-50.35</v>
+      </c>
+      <c r="T18">
+        <v>-76.650000000000006</v>
+      </c>
+      <c r="U18">
+        <v>161</v>
+      </c>
+      <c r="V18">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1086</v>
+      </c>
+      <c r="B19">
+        <v>274.5</v>
+      </c>
+      <c r="C19">
+        <v>2656</v>
+      </c>
+      <c r="D19">
+        <v>-50.35</v>
+      </c>
+      <c r="E19">
+        <v>-71.45</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H19">
+        <v>-1.26</v>
+      </c>
+      <c r="I19">
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <v>7.2</v>
+      </c>
+      <c r="K19">
+        <v>25.92</v>
+      </c>
+      <c r="L19">
+        <v>-123.24</v>
+      </c>
+      <c r="M19">
+        <v>49.28</v>
+      </c>
+      <c r="Q19">
+        <v>274.5</v>
+      </c>
+      <c r="R19">
+        <v>2656</v>
+      </c>
+      <c r="S19">
+        <v>-50.35</v>
+      </c>
+      <c r="T19">
+        <v>-71.45</v>
+      </c>
+      <c r="U19">
+        <v>162</v>
+      </c>
+      <c r="V19">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1114</v>
+      </c>
+      <c r="B20">
+        <v>276.8</v>
+      </c>
+      <c r="C20">
+        <v>2717</v>
+      </c>
+      <c r="D20">
+        <v>-50.25</v>
+      </c>
+      <c r="E20">
+        <v>-69.349999999999994</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H20">
+        <v>-0.47</v>
+      </c>
+      <c r="I20">
+        <v>162</v>
+      </c>
+      <c r="J20">
+        <v>7.2</v>
+      </c>
+      <c r="K20">
+        <v>25.92</v>
+      </c>
+      <c r="L20">
+        <v>-123.24</v>
+      </c>
+      <c r="M20">
+        <v>49.3</v>
+      </c>
+      <c r="Q20">
+        <v>276.8</v>
+      </c>
+      <c r="R20">
+        <v>2717</v>
+      </c>
+      <c r="S20">
+        <v>-50.25</v>
+      </c>
+      <c r="T20">
+        <v>-69.349999999999994</v>
+      </c>
+      <c r="U20">
+        <v>162</v>
+      </c>
+      <c r="V20">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1264</v>
+      </c>
+      <c r="B21">
+        <v>280.8</v>
+      </c>
+      <c r="C21">
+        <v>3022</v>
+      </c>
+      <c r="D21">
+        <v>-50.15</v>
+      </c>
+      <c r="E21">
+        <v>-67.650000000000006</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>5.16</v>
+      </c>
+      <c r="H21">
+        <v>-0.43</v>
+      </c>
+      <c r="I21">
+        <v>172</v>
+      </c>
+      <c r="J21">
+        <v>7.2</v>
+      </c>
+      <c r="K21">
+        <v>25.92</v>
+      </c>
+      <c r="L21">
+        <v>-123.24</v>
+      </c>
+      <c r="M21">
+        <v>49.3</v>
+      </c>
+      <c r="Q21">
+        <v>280.8</v>
+      </c>
+      <c r="R21">
+        <v>3022</v>
+      </c>
+      <c r="S21">
+        <v>-50.15</v>
+      </c>
+      <c r="T21">
+        <v>-67.650000000000006</v>
+      </c>
+      <c r="U21">
+        <v>172</v>
+      </c>
+      <c r="V21">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1430</v>
+      </c>
+      <c r="B22">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="C22">
+        <v>3355</v>
+      </c>
+      <c r="D22">
+        <v>-50.05</v>
+      </c>
+      <c r="E22">
+        <v>-66.849999999999994</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>5.55</v>
+      </c>
+      <c r="H22">
+        <v>-0.43</v>
+      </c>
+      <c r="I22">
+        <v>179</v>
+      </c>
+      <c r="J22">
+        <v>7.2</v>
+      </c>
+      <c r="K22">
+        <v>25.92</v>
+      </c>
+      <c r="L22">
+        <v>-123.24</v>
+      </c>
+      <c r="M22">
+        <v>49.31</v>
+      </c>
+      <c r="Q22">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="R22">
+        <v>3355</v>
+      </c>
+      <c r="S22">
+        <v>-50.05</v>
+      </c>
+      <c r="T22">
+        <v>-66.849999999999994</v>
+      </c>
+      <c r="U22">
+        <v>179</v>
+      </c>
+      <c r="V22">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1592</v>
+      </c>
+      <c r="B23">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="C23">
+        <v>3700</v>
+      </c>
+      <c r="D23">
+        <v>-48.25</v>
+      </c>
+      <c r="E23">
+        <v>-65.75</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>6.2</v>
+      </c>
+      <c r="H23">
+        <v>-0.2</v>
+      </c>
+      <c r="I23">
+        <v>179</v>
+      </c>
+      <c r="J23">
+        <v>7.7</v>
+      </c>
+      <c r="K23">
+        <v>27.72</v>
+      </c>
+      <c r="L23">
+        <v>-123.24</v>
+      </c>
+      <c r="M23">
+        <v>49.32</v>
+      </c>
+      <c r="Q23">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="R23">
+        <v>3700</v>
+      </c>
+      <c r="S23">
+        <v>-48.25</v>
+      </c>
+      <c r="T23">
+        <v>-65.75</v>
+      </c>
+      <c r="U23">
+        <v>179</v>
+      </c>
+      <c r="V23">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2150</v>
+      </c>
+      <c r="B24">
+        <v>336.2</v>
+      </c>
+      <c r="C24">
+        <v>4939</v>
+      </c>
+      <c r="D24">
+        <v>-48.15</v>
+      </c>
+      <c r="E24">
+        <v>-56.15</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>6.34</v>
+      </c>
+      <c r="H24">
+        <v>-0.13</v>
+      </c>
+      <c r="I24">
+        <v>183</v>
+      </c>
+      <c r="J24">
+        <v>7.8</v>
+      </c>
+      <c r="K24">
+        <v>28.08</v>
+      </c>
+      <c r="L24">
+        <v>-123.24</v>
+      </c>
+      <c r="M24">
+        <v>49.33</v>
+      </c>
+      <c r="Q24">
+        <v>336.2</v>
+      </c>
+      <c r="R24">
+        <v>4939</v>
+      </c>
+      <c r="S24">
+        <v>-48.15</v>
+      </c>
+      <c r="T24">
+        <v>-56.15</v>
+      </c>
+      <c r="U24">
+        <v>183</v>
+      </c>
+      <c r="V24">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2164</v>
+      </c>
+      <c r="B25">
+        <v>356.4</v>
+      </c>
+      <c r="C25">
+        <v>4972</v>
+      </c>
+      <c r="D25">
+        <v>-46.45</v>
+      </c>
+      <c r="E25">
+        <v>-55.55</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>6.62</v>
+      </c>
+      <c r="H25">
+        <v>0.41</v>
+      </c>
+      <c r="I25">
+        <v>184</v>
+      </c>
+      <c r="J25">
+        <v>7.8</v>
+      </c>
+      <c r="K25">
+        <v>28.08</v>
+      </c>
+      <c r="L25">
+        <v>-123.24</v>
+      </c>
+      <c r="M25">
+        <v>49.37</v>
+      </c>
+      <c r="Q25">
+        <v>356.4</v>
+      </c>
+      <c r="R25">
+        <v>4972</v>
+      </c>
+      <c r="S25">
+        <v>-46.45</v>
+      </c>
+      <c r="T25">
+        <v>-55.55</v>
+      </c>
+      <c r="U25">
+        <v>184</v>
+      </c>
+      <c r="V25">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2310</v>
+      </c>
+      <c r="B26">
+        <v>378.1</v>
+      </c>
+      <c r="C26">
+        <v>5284</v>
+      </c>
+      <c r="D26">
+        <v>-43.65</v>
+      </c>
+      <c r="E26">
+        <v>-55.55</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>6.69</v>
+      </c>
+      <c r="H26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I26">
+        <v>184</v>
+      </c>
+      <c r="J26">
+        <v>7.8</v>
+      </c>
+      <c r="K26">
+        <v>28.08</v>
+      </c>
+      <c r="L26">
+        <v>-123.24</v>
+      </c>
+      <c r="M26">
+        <v>49.37</v>
+      </c>
+      <c r="Q26">
+        <v>378.1</v>
+      </c>
+      <c r="R26">
+        <v>5284</v>
+      </c>
+      <c r="S26">
+        <v>-43.65</v>
+      </c>
+      <c r="T26">
+        <v>-55.55</v>
+      </c>
+      <c r="U26">
+        <v>184</v>
+      </c>
+      <c r="V26">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2316</v>
+      </c>
+      <c r="B27">
+        <v>404.2</v>
+      </c>
+      <c r="C27">
+        <v>5296</v>
+      </c>
+      <c r="D27">
+        <v>-39.75</v>
+      </c>
+      <c r="E27">
+        <v>-52.85</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>6.72</v>
+      </c>
+      <c r="H27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I27">
+        <v>184</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>28.8</v>
+      </c>
+      <c r="L27">
+        <v>-123.24</v>
+      </c>
+      <c r="M27">
+        <v>49.38</v>
+      </c>
+      <c r="Q27">
+        <v>404.2</v>
+      </c>
+      <c r="R27">
+        <v>5296</v>
+      </c>
+      <c r="S27">
+        <v>-39.75</v>
+      </c>
+      <c r="T27">
+        <v>-52.85</v>
+      </c>
+      <c r="U27">
+        <v>184</v>
+      </c>
+      <c r="V27">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2388</v>
+      </c>
+      <c r="B28">
+        <v>408.2</v>
+      </c>
+      <c r="C28">
+        <v>5451</v>
+      </c>
+      <c r="D28">
+        <v>-39.15</v>
+      </c>
+      <c r="E28">
+        <v>-52.35</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>6.75</v>
+      </c>
+      <c r="H28">
+        <v>0.61</v>
+      </c>
+      <c r="I28">
+        <v>184</v>
+      </c>
+      <c r="J28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K28">
+        <v>29.52</v>
+      </c>
+      <c r="L28">
+        <v>-123.24</v>
+      </c>
+      <c r="M28">
+        <v>49.38</v>
+      </c>
+      <c r="Q28">
+        <v>408.2</v>
+      </c>
+      <c r="R28">
+        <v>5451</v>
+      </c>
+      <c r="S28">
+        <v>-39.15</v>
+      </c>
+      <c r="T28">
+        <v>-52.35</v>
+      </c>
+      <c r="U28">
+        <v>184</v>
+      </c>
+      <c r="V28">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2446</v>
+      </c>
+      <c r="B29">
+        <v>421.1</v>
+      </c>
+      <c r="C29">
+        <v>5573</v>
+      </c>
+      <c r="D29">
+        <v>-37.450000000000003</v>
+      </c>
+      <c r="E29">
+        <v>-50.75</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>6.8</v>
+      </c>
+      <c r="H29">
+        <v>0.63</v>
+      </c>
+      <c r="I29">
+        <v>186</v>
+      </c>
+      <c r="J29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K29">
+        <v>29.52</v>
+      </c>
+      <c r="L29">
+        <v>-123.23</v>
+      </c>
+      <c r="M29">
+        <v>49.38</v>
+      </c>
+      <c r="Q29">
+        <v>421.1</v>
+      </c>
+      <c r="R29">
+        <v>5573</v>
+      </c>
+      <c r="S29">
+        <v>-37.450000000000003</v>
+      </c>
+      <c r="T29">
+        <v>-50.75</v>
+      </c>
+      <c r="U29">
+        <v>186</v>
+      </c>
+      <c r="V29">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2468</v>
+      </c>
+      <c r="B30">
+        <v>433.7</v>
+      </c>
+      <c r="C30">
+        <v>5620</v>
+      </c>
+      <c r="D30">
+        <v>-35.75</v>
+      </c>
+      <c r="E30">
+        <v>-50.35</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>6.85</v>
+      </c>
+      <c r="H30">
+        <v>0.69</v>
+      </c>
+      <c r="I30">
+        <v>190</v>
+      </c>
+      <c r="J30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K30">
+        <v>29.88</v>
+      </c>
+      <c r="L30">
+        <v>-123.23</v>
+      </c>
+      <c r="M30">
+        <v>49.38</v>
+      </c>
+      <c r="Q30">
+        <v>433.7</v>
+      </c>
+      <c r="R30">
+        <v>5620</v>
+      </c>
+      <c r="S30">
+        <v>-35.75</v>
+      </c>
+      <c r="T30">
+        <v>-50.35</v>
+      </c>
+      <c r="U30">
+        <v>190</v>
+      </c>
+      <c r="V30">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2548</v>
+      </c>
+      <c r="B31">
+        <v>473.9</v>
+      </c>
+      <c r="C31">
+        <v>5788</v>
+      </c>
+      <c r="D31">
+        <v>-30.85</v>
+      </c>
+      <c r="E31">
+        <v>-50.15</v>
+      </c>
+      <c r="F31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>6.86</v>
+      </c>
+      <c r="H31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I31">
+        <v>191</v>
+      </c>
+      <c r="J31">
+        <v>8.4</v>
+      </c>
+      <c r="K31">
+        <v>30.24</v>
+      </c>
+      <c r="L31">
+        <v>-123.23</v>
+      </c>
+      <c r="M31">
+        <v>49.39</v>
+      </c>
+      <c r="Q31">
+        <v>473.9</v>
+      </c>
+      <c r="R31">
+        <v>5788</v>
+      </c>
+      <c r="S31">
+        <v>-30.85</v>
+      </c>
+      <c r="T31">
+        <v>-50.15</v>
+      </c>
+      <c r="U31">
+        <v>191</v>
+      </c>
+      <c r="V31">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2832</v>
+      </c>
+      <c r="B32">
+        <v>485.3</v>
+      </c>
+      <c r="C32">
+        <v>6412</v>
+      </c>
+      <c r="D32">
+        <v>-29.55</v>
+      </c>
+      <c r="E32">
+        <v>-47.95</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>6.92</v>
+      </c>
+      <c r="H32">
+        <v>1.38</v>
+      </c>
+      <c r="I32">
+        <v>191</v>
+      </c>
+      <c r="J32">
+        <v>8.5</v>
+      </c>
+      <c r="K32">
+        <v>30.6</v>
+      </c>
+      <c r="L32">
+        <v>-123.22</v>
+      </c>
+      <c r="M32">
+        <v>49.39</v>
+      </c>
+      <c r="Q32">
+        <v>485.3</v>
+      </c>
+      <c r="R32">
+        <v>6412</v>
+      </c>
+      <c r="S32">
+        <v>-29.55</v>
+      </c>
+      <c r="T32">
+        <v>-47.95</v>
+      </c>
+      <c r="U32">
+        <v>191</v>
+      </c>
+      <c r="V32">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2920</v>
+      </c>
+      <c r="B33">
+        <v>488.5</v>
+      </c>
+      <c r="C33">
+        <v>6615</v>
+      </c>
+      <c r="D33">
+        <v>-29.45</v>
+      </c>
+      <c r="E33">
+        <v>-46.05</v>
+      </c>
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>6.95</v>
+      </c>
+      <c r="H33">
+        <v>1.38</v>
+      </c>
+      <c r="I33">
+        <v>193</v>
+      </c>
+      <c r="J33">
+        <v>8.5</v>
+      </c>
+      <c r="K33">
+        <v>30.6</v>
+      </c>
+      <c r="L33">
+        <v>-123.21</v>
+      </c>
+      <c r="M33">
+        <v>49.41</v>
+      </c>
+      <c r="Q33">
+        <v>488.5</v>
+      </c>
+      <c r="R33">
+        <v>6615</v>
+      </c>
+      <c r="S33">
+        <v>-29.45</v>
+      </c>
+      <c r="T33">
+        <v>-46.05</v>
+      </c>
+      <c r="U33">
+        <v>193</v>
+      </c>
+      <c r="V33">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3014</v>
+      </c>
+      <c r="B34">
+        <v>496.9</v>
+      </c>
+      <c r="C34">
+        <v>6829</v>
+      </c>
+      <c r="D34">
+        <v>-29.05</v>
+      </c>
+      <c r="E34">
+        <v>-46.05</v>
+      </c>
+      <c r="F34">
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <v>7.16</v>
+      </c>
+      <c r="H34">
+        <v>1.55</v>
+      </c>
+      <c r="I34">
+        <v>194</v>
+      </c>
+      <c r="J34">
+        <v>8.5</v>
+      </c>
+      <c r="K34">
+        <v>30.6</v>
+      </c>
+      <c r="L34">
+        <v>-123.21</v>
+      </c>
+      <c r="M34">
+        <v>49.41</v>
+      </c>
+      <c r="Q34">
+        <v>496.9</v>
+      </c>
+      <c r="R34">
+        <v>6829</v>
+      </c>
+      <c r="S34">
+        <v>-29.05</v>
+      </c>
+      <c r="T34">
+        <v>-46.05</v>
+      </c>
+      <c r="U34">
+        <v>194</v>
+      </c>
+      <c r="V34">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>3044</v>
+      </c>
+      <c r="B35">
+        <v>507.7</v>
+      </c>
+      <c r="C35">
+        <v>6897</v>
+      </c>
+      <c r="D35">
+        <v>-27.85</v>
+      </c>
+      <c r="E35">
+        <v>-45.25</v>
+      </c>
+      <c r="F35">
+        <v>39</v>
+      </c>
+      <c r="G35">
+        <v>7.2</v>
+      </c>
+      <c r="H35">
+        <v>1.73</v>
+      </c>
+      <c r="I35">
+        <v>195</v>
+      </c>
+      <c r="J35">
+        <v>8.6</v>
+      </c>
+      <c r="K35">
+        <v>30.96</v>
+      </c>
+      <c r="L35">
+        <v>-123.2</v>
+      </c>
+      <c r="M35">
+        <v>49.42</v>
+      </c>
+      <c r="Q35">
+        <v>507.7</v>
+      </c>
+      <c r="R35">
+        <v>6897</v>
+      </c>
+      <c r="S35">
+        <v>-27.85</v>
+      </c>
+      <c r="T35">
+        <v>-45.25</v>
+      </c>
+      <c r="U35">
+        <v>195</v>
+      </c>
+      <c r="V35">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>3262</v>
+      </c>
+      <c r="B36">
+        <v>508.6</v>
+      </c>
+      <c r="C36">
+        <v>7350</v>
+      </c>
+      <c r="D36">
+        <v>-27.85</v>
+      </c>
+      <c r="E36">
+        <v>-44.85</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>7.2</v>
+      </c>
+      <c r="H36">
+        <v>1.8</v>
+      </c>
+      <c r="I36">
+        <v>198</v>
+      </c>
+      <c r="J36">
+        <v>8.6</v>
+      </c>
+      <c r="K36">
+        <v>30.96</v>
+      </c>
+      <c r="L36">
+        <v>-123.2</v>
+      </c>
+      <c r="M36">
+        <v>49.42</v>
+      </c>
+      <c r="Q36">
+        <v>508.6</v>
+      </c>
+      <c r="R36">
+        <v>7350</v>
+      </c>
+      <c r="S36">
+        <v>-27.85</v>
+      </c>
+      <c r="T36">
+        <v>-44.85</v>
+      </c>
+      <c r="U36">
+        <v>198</v>
+      </c>
+      <c r="V36">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3452</v>
+      </c>
+      <c r="B37">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="C37">
+        <v>7743</v>
+      </c>
+      <c r="D37">
+        <v>-27.85</v>
+      </c>
+      <c r="E37">
+        <v>-29.95</v>
+      </c>
+      <c r="F37">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>7.29</v>
+      </c>
+      <c r="H37">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I37">
+        <v>198</v>
+      </c>
+      <c r="J37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K37">
+        <v>31.32</v>
+      </c>
+      <c r="L37">
+        <v>-123.19</v>
+      </c>
+      <c r="M37">
+        <v>49.43</v>
+      </c>
+      <c r="Q37">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="R37">
+        <v>7743</v>
+      </c>
+      <c r="S37">
+        <v>-27.85</v>
+      </c>
+      <c r="T37">
+        <v>-29.95</v>
+      </c>
+      <c r="U37">
+        <v>198</v>
+      </c>
+      <c r="V37">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>3604</v>
+      </c>
+      <c r="B38">
+        <v>533.6</v>
+      </c>
+      <c r="C38">
+        <v>8128</v>
+      </c>
+      <c r="D38">
+        <v>-27.65</v>
+      </c>
+      <c r="E38">
+        <v>-29.75</v>
+      </c>
+      <c r="F38">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>7.39</v>
+      </c>
+      <c r="H38">
+        <v>2.39</v>
+      </c>
+      <c r="I38">
+        <v>199</v>
+      </c>
+      <c r="J38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K38">
+        <v>31.68</v>
+      </c>
+      <c r="L38">
+        <v>-123.18</v>
+      </c>
+      <c r="M38">
+        <v>49.45</v>
+      </c>
+      <c r="Q38">
+        <v>533.6</v>
+      </c>
+      <c r="R38">
+        <v>8128</v>
+      </c>
+      <c r="S38">
+        <v>-27.65</v>
+      </c>
+      <c r="T38">
+        <v>-29.75</v>
+      </c>
+      <c r="U38">
+        <v>199</v>
+      </c>
+      <c r="V38">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>4014</v>
+      </c>
+      <c r="B39">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="C39">
+        <v>9073</v>
+      </c>
+      <c r="D39">
+        <v>-16.95</v>
+      </c>
+      <c r="E39">
+        <v>-22.05</v>
+      </c>
+      <c r="F39">
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>7.5</v>
+      </c>
+      <c r="H39">
+        <v>2.73</v>
+      </c>
+      <c r="I39">
+        <v>201</v>
+      </c>
+      <c r="J39">
+        <v>8.9</v>
+      </c>
+      <c r="K39">
+        <v>32.04</v>
+      </c>
+      <c r="L39">
+        <v>-123.18</v>
+      </c>
+      <c r="M39">
+        <v>49.46</v>
+      </c>
+      <c r="Q39">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="R39">
+        <v>9073</v>
+      </c>
+      <c r="S39">
+        <v>-16.95</v>
+      </c>
+      <c r="T39">
+        <v>-22.05</v>
+      </c>
+      <c r="U39">
+        <v>201</v>
+      </c>
+      <c r="V39">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>4056</v>
+      </c>
+      <c r="B40">
+        <v>661.2</v>
+      </c>
+      <c r="C40">
+        <v>9172</v>
+      </c>
+      <c r="D40">
+        <v>-13.85</v>
+      </c>
+      <c r="E40">
+        <v>-22.05</v>
+      </c>
+      <c r="F40">
+        <v>49</v>
+      </c>
+      <c r="G40">
+        <v>7.7</v>
+      </c>
+      <c r="H40">
+        <v>3.07</v>
+      </c>
+      <c r="I40">
+        <v>205</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>32.4</v>
+      </c>
+      <c r="L40">
+        <v>-123.15</v>
+      </c>
+      <c r="M40">
+        <v>49.5</v>
+      </c>
+      <c r="Q40">
+        <v>661.2</v>
+      </c>
+      <c r="R40">
+        <v>9172</v>
+      </c>
+      <c r="S40">
+        <v>-13.85</v>
+      </c>
+      <c r="T40">
+        <v>-22.05</v>
+      </c>
+      <c r="U40">
+        <v>205</v>
+      </c>
+      <c r="V40">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>4106</v>
+      </c>
+      <c r="B41">
+        <v>690.6</v>
+      </c>
+      <c r="C41">
+        <v>9288</v>
+      </c>
+      <c r="D41">
+        <v>-11.35</v>
+      </c>
+      <c r="E41">
+        <v>-16.55</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>7.88</v>
+      </c>
+      <c r="H41">
+        <v>3.36</v>
+      </c>
+      <c r="I41">
+        <v>205</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>32.4</v>
+      </c>
+      <c r="L41">
+        <v>-123.14</v>
+      </c>
+      <c r="M41">
+        <v>49.5</v>
+      </c>
+      <c r="Q41">
+        <v>690.6</v>
+      </c>
+      <c r="R41">
+        <v>9288</v>
+      </c>
+      <c r="S41">
+        <v>-11.35</v>
+      </c>
+      <c r="T41">
+        <v>-16.55</v>
+      </c>
+      <c r="U41">
+        <v>205</v>
+      </c>
+      <c r="V41">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>4146</v>
+      </c>
+      <c r="B42">
+        <v>718.6</v>
+      </c>
+      <c r="C42">
+        <v>9379</v>
+      </c>
+      <c r="D42">
+        <v>-9.5499999999999599</v>
+      </c>
+      <c r="E42">
+        <v>-13.65</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>8.27</v>
+      </c>
+      <c r="H42">
+        <v>3.46</v>
+      </c>
+      <c r="I42">
+        <v>205</v>
+      </c>
+      <c r="J42">
+        <v>9.1</v>
+      </c>
+      <c r="K42">
+        <v>32.76</v>
+      </c>
+      <c r="L42">
+        <v>-123.14</v>
+      </c>
+      <c r="M42">
+        <v>49.51</v>
+      </c>
+      <c r="Q42">
+        <v>718.6</v>
+      </c>
+      <c r="R42">
+        <v>9379</v>
+      </c>
+      <c r="S42">
+        <v>-9.5499999999999599</v>
+      </c>
+      <c r="T42">
+        <v>-13.65</v>
+      </c>
+      <c r="U42">
+        <v>205</v>
+      </c>
+      <c r="V42">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>4170</v>
+      </c>
+      <c r="B43">
+        <v>724.3</v>
+      </c>
+      <c r="C43">
+        <v>9433</v>
+      </c>
+      <c r="D43">
+        <v>-9.1499999999999808</v>
+      </c>
+      <c r="E43">
+        <v>-13.45</v>
+      </c>
+      <c r="F43">
+        <v>58</v>
+      </c>
+      <c r="G43">
+        <v>8.31</v>
+      </c>
+      <c r="H43">
+        <v>3.57</v>
+      </c>
+      <c r="I43">
+        <v>206</v>
+      </c>
+      <c r="J43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K43">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="L43">
+        <v>-123.13</v>
+      </c>
+      <c r="M43">
+        <v>49.51</v>
+      </c>
+      <c r="Q43">
+        <v>724.3</v>
+      </c>
+      <c r="R43">
+        <v>9433</v>
+      </c>
+      <c r="S43">
+        <v>-9.1499999999999808</v>
+      </c>
+      <c r="T43">
+        <v>-13.45</v>
+      </c>
+      <c r="U43">
+        <v>206</v>
+      </c>
+      <c r="V43">
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>4270</v>
+      </c>
+      <c r="B44">
+        <v>764.8</v>
+      </c>
+      <c r="C44">
+        <v>9655</v>
+      </c>
+      <c r="D44">
+        <v>-6.5499999999999501</v>
+      </c>
+      <c r="E44">
+        <v>-12.55</v>
+      </c>
+      <c r="F44">
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>8.57</v>
+      </c>
+      <c r="H44">
+        <v>3.6</v>
+      </c>
+      <c r="I44">
+        <v>208</v>
+      </c>
+      <c r="J44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K44">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="L44">
+        <v>-123.13</v>
+      </c>
+      <c r="M44">
+        <v>49.51</v>
+      </c>
+      <c r="Q44">
+        <v>764.8</v>
+      </c>
+      <c r="R44">
+        <v>9655</v>
+      </c>
+      <c r="S44">
+        <v>-6.5499999999999501</v>
+      </c>
+      <c r="T44">
+        <v>-12.55</v>
+      </c>
+      <c r="U44">
+        <v>208</v>
+      </c>
+      <c r="V44">
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>4592</v>
+      </c>
+      <c r="B45">
+        <v>766.8</v>
+      </c>
+      <c r="C45">
+        <v>10434</v>
+      </c>
+      <c r="D45">
+        <v>-6.5499999999999501</v>
+      </c>
+      <c r="E45">
+        <v>-11.95</v>
+      </c>
+      <c r="F45">
+        <v>62</v>
+      </c>
+      <c r="G45">
+        <v>8.64</v>
+      </c>
+      <c r="H45">
+        <v>3.61</v>
+      </c>
+      <c r="I45">
+        <v>209</v>
+      </c>
+      <c r="J45">
+        <v>9.4</v>
+      </c>
+      <c r="K45">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="L45">
+        <v>-123.13</v>
+      </c>
+      <c r="M45">
+        <v>49.52</v>
+      </c>
+      <c r="Q45">
+        <v>766.8</v>
+      </c>
+      <c r="R45">
+        <v>10434</v>
+      </c>
+      <c r="S45">
+        <v>-6.5499999999999501</v>
+      </c>
+      <c r="T45">
+        <v>-11.95</v>
+      </c>
+      <c r="U45">
+        <v>209</v>
+      </c>
+      <c r="V45">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>4720</v>
+      </c>
+      <c r="B46">
+        <v>779.8</v>
+      </c>
+      <c r="C46">
+        <v>10728</v>
+      </c>
+      <c r="D46">
+        <v>-5.6499999999999799</v>
+      </c>
+      <c r="E46">
+        <v>-11.55</v>
+      </c>
+      <c r="F46">
+        <v>64</v>
+      </c>
+      <c r="G46">
+        <v>8.65</v>
+      </c>
+      <c r="H46">
+        <v>3.64</v>
+      </c>
+      <c r="I46">
+        <v>210</v>
+      </c>
+      <c r="J46">
+        <v>9.6</v>
+      </c>
+      <c r="K46">
+        <v>34.56</v>
+      </c>
+      <c r="L46">
+        <v>-123.12</v>
+      </c>
+      <c r="M46">
+        <v>49.55</v>
+      </c>
+      <c r="Q46">
+        <v>779.8</v>
+      </c>
+      <c r="R46">
+        <v>10728</v>
+      </c>
+      <c r="S46">
+        <v>-5.6499999999999799</v>
+      </c>
+      <c r="T46">
+        <v>-11.55</v>
+      </c>
+      <c r="U46">
+        <v>210</v>
+      </c>
+      <c r="V46">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>4776</v>
+      </c>
+      <c r="B47">
+        <v>813.1</v>
+      </c>
+      <c r="C47">
+        <v>10862</v>
+      </c>
+      <c r="D47">
+        <v>-3.94999999999999</v>
+      </c>
+      <c r="E47">
+        <v>-11.05</v>
+      </c>
+      <c r="F47">
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H47">
+        <v>3.67</v>
+      </c>
+      <c r="I47">
+        <v>212</v>
+      </c>
+      <c r="J47">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K47">
+        <v>34.92</v>
+      </c>
+      <c r="L47">
+        <v>-123.12</v>
+      </c>
+      <c r="M47">
+        <v>49.56</v>
+      </c>
+      <c r="Q47">
+        <v>813.1</v>
+      </c>
+      <c r="R47">
+        <v>10862</v>
+      </c>
+      <c r="S47">
+        <v>-3.94999999999999</v>
+      </c>
+      <c r="T47">
+        <v>-11.05</v>
+      </c>
+      <c r="U47">
+        <v>212</v>
+      </c>
+      <c r="V47">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>4856</v>
+      </c>
+      <c r="B48">
+        <v>819.2</v>
+      </c>
+      <c r="C48">
+        <v>11062</v>
+      </c>
+      <c r="D48">
+        <v>-3.5499999999999501</v>
+      </c>
+      <c r="E48">
+        <v>-9.8499999999999694</v>
+      </c>
+      <c r="F48">
+        <v>65</v>
+      </c>
+      <c r="G48">
+        <v>8.75</v>
+      </c>
+      <c r="H48">
+        <v>3.68</v>
+      </c>
+      <c r="I48">
+        <v>215</v>
+      </c>
+      <c r="J48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K48">
+        <v>36.72</v>
+      </c>
+      <c r="L48">
+        <v>-123.12</v>
+      </c>
+      <c r="M48">
+        <v>49.57</v>
+      </c>
+      <c r="Q48">
+        <v>819.2</v>
+      </c>
+      <c r="R48">
+        <v>11062</v>
+      </c>
+      <c r="S48">
+        <v>-3.5499999999999501</v>
+      </c>
+      <c r="T48">
+        <v>-9.8499999999999694</v>
+      </c>
+      <c r="U48">
+        <v>215</v>
+      </c>
+      <c r="V48">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>5778</v>
+      </c>
+      <c r="B49">
+        <v>842.4</v>
+      </c>
+      <c r="C49">
+        <v>13305</v>
+      </c>
+      <c r="D49">
+        <v>-2.1499999999999799</v>
+      </c>
+      <c r="E49">
+        <v>-9.5499999999999599</v>
+      </c>
+      <c r="F49">
+        <v>65</v>
+      </c>
+      <c r="G49">
+        <v>8.82</v>
+      </c>
+      <c r="H49">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I49">
+        <v>216</v>
+      </c>
+      <c r="J49">
+        <v>10.6</v>
+      </c>
+      <c r="K49">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="L49">
+        <v>-123.12</v>
+      </c>
+      <c r="M49">
+        <v>49.57</v>
+      </c>
+      <c r="Q49">
+        <v>842.4</v>
+      </c>
+      <c r="R49">
+        <v>13305</v>
+      </c>
+      <c r="S49">
+        <v>-2.1499999999999799</v>
+      </c>
+      <c r="T49">
+        <v>-9.5499999999999599</v>
+      </c>
+      <c r="U49">
+        <v>216</v>
+      </c>
+      <c r="V49">
+        <v>38.159999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>5814</v>
+      </c>
+      <c r="B50">
+        <v>850.2</v>
+      </c>
+      <c r="C50">
+        <v>13394</v>
+      </c>
+      <c r="D50">
+        <v>-1.75</v>
+      </c>
+      <c r="E50">
+        <v>-9.3499999999999694</v>
+      </c>
+      <c r="F50">
+        <v>66</v>
+      </c>
+      <c r="G50">
+        <v>8.98</v>
+      </c>
+      <c r="H50">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I50">
+        <v>216</v>
+      </c>
+      <c r="J50">
+        <v>10.6</v>
+      </c>
+      <c r="K50">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="L50">
+        <v>-123.1</v>
+      </c>
+      <c r="M50">
+        <v>49.64</v>
+      </c>
+      <c r="Q50">
+        <v>850.2</v>
+      </c>
+      <c r="R50">
+        <v>13394</v>
+      </c>
+      <c r="S50">
+        <v>-1.75</v>
+      </c>
+      <c r="T50">
+        <v>-9.3499999999999694</v>
+      </c>
+      <c r="U50">
+        <v>216</v>
+      </c>
+      <c r="V50">
+        <v>38.159999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>6178</v>
+      </c>
+      <c r="B51">
+        <v>875</v>
+      </c>
+      <c r="C51">
+        <v>14366</v>
+      </c>
+      <c r="D51">
+        <v>0.25</v>
+      </c>
+      <c r="E51">
+        <v>-9.25</v>
+      </c>
+      <c r="F51">
+        <v>66</v>
+      </c>
+      <c r="G51">
+        <v>9.34</v>
+      </c>
+      <c r="H51">
+        <v>5.22</v>
+      </c>
+      <c r="I51">
+        <v>217</v>
+      </c>
+      <c r="J51">
+        <v>11.1</v>
+      </c>
+      <c r="K51">
+        <v>39.96</v>
+      </c>
+      <c r="L51">
+        <v>-123.1</v>
+      </c>
+      <c r="M51">
+        <v>49.64</v>
+      </c>
+      <c r="Q51">
+        <v>875</v>
+      </c>
+      <c r="R51">
+        <v>14366</v>
+      </c>
+      <c r="S51">
+        <v>0.25</v>
+      </c>
+      <c r="T51">
+        <v>-9.25</v>
+      </c>
+      <c r="U51">
+        <v>217</v>
+      </c>
+      <c r="V51">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>6220</v>
+      </c>
+      <c r="B52">
+        <v>916.4</v>
+      </c>
+      <c r="C52">
+        <v>14472</v>
+      </c>
+      <c r="D52">
+        <v>3.3500000000000201</v>
+      </c>
+      <c r="E52">
+        <v>-8.25</v>
+      </c>
+      <c r="F52">
+        <v>69</v>
+      </c>
+      <c r="G52">
+        <v>9.52</v>
+      </c>
+      <c r="H52">
+        <v>5.56</v>
+      </c>
+      <c r="I52">
+        <v>219</v>
+      </c>
+      <c r="J52">
+        <v>11.3</v>
+      </c>
+      <c r="K52">
+        <v>40.68</v>
+      </c>
+      <c r="L52">
+        <v>-123.09</v>
+      </c>
+      <c r="M52">
+        <v>49.66</v>
+      </c>
+      <c r="Q52">
+        <v>916.4</v>
+      </c>
+      <c r="R52">
+        <v>14472</v>
+      </c>
+      <c r="S52">
+        <v>3.3500000000000201</v>
+      </c>
+      <c r="T52">
+        <v>-8.25</v>
+      </c>
+      <c r="U52">
+        <v>219</v>
+      </c>
+      <c r="V52">
+        <v>40.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>6938</v>
+      </c>
+      <c r="B53">
+        <v>942</v>
+      </c>
+      <c r="C53">
+        <v>16355</v>
+      </c>
+      <c r="D53">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="E53">
+        <v>-8.25</v>
+      </c>
+      <c r="F53">
+        <v>71</v>
+      </c>
+      <c r="G53">
+        <v>9.68</v>
+      </c>
+      <c r="H53">
+        <v>5.9</v>
+      </c>
+      <c r="I53">
+        <v>220</v>
+      </c>
+      <c r="J53">
+        <v>11.3</v>
+      </c>
+      <c r="K53">
+        <v>40.68</v>
+      </c>
+      <c r="L53">
+        <v>-123.09</v>
+      </c>
+      <c r="M53">
+        <v>49.67</v>
+      </c>
+      <c r="Q53">
+        <v>942</v>
+      </c>
+      <c r="R53">
+        <v>16355</v>
+      </c>
+      <c r="S53">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="T53">
+        <v>-8.25</v>
+      </c>
+      <c r="U53">
+        <v>220</v>
+      </c>
+      <c r="V53">
+        <v>40.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>6940</v>
+      </c>
+      <c r="B54">
+        <v>947</v>
+      </c>
+      <c r="C54">
+        <v>16360</v>
+      </c>
+      <c r="D54">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="E54">
+        <v>-7.25</v>
+      </c>
+      <c r="F54">
+        <v>72</v>
+      </c>
+      <c r="G54">
+        <v>9.86</v>
+      </c>
+      <c r="H54">
+        <v>6.02</v>
+      </c>
+      <c r="I54">
+        <v>221</v>
+      </c>
+      <c r="J54">
+        <v>12.1</v>
+      </c>
+      <c r="K54">
+        <v>43.56</v>
+      </c>
+      <c r="L54">
+        <v>-123.06</v>
+      </c>
+      <c r="M54">
+        <v>49.71</v>
+      </c>
+      <c r="Q54">
+        <v>947</v>
+      </c>
+      <c r="R54">
+        <v>16360</v>
+      </c>
+      <c r="S54">
+        <v>3.6500000000000301</v>
+      </c>
+      <c r="T54">
+        <v>-7.25</v>
+      </c>
+      <c r="U54">
+        <v>221</v>
+      </c>
+      <c r="V54">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>7590</v>
+      </c>
+      <c r="B55">
+        <v>951.4</v>
+      </c>
+      <c r="C55">
+        <v>18115</v>
+      </c>
+      <c r="D55">
+        <v>4.3500000000000201</v>
+      </c>
+      <c r="E55">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="F55">
+        <v>78</v>
+      </c>
+      <c r="G55">
+        <v>10.18</v>
+      </c>
+      <c r="H55">
+        <v>6.1</v>
+      </c>
+      <c r="I55">
+        <v>228</v>
+      </c>
+      <c r="J55">
+        <v>12.3</v>
+      </c>
+      <c r="K55">
+        <v>44.28</v>
+      </c>
+      <c r="L55">
+        <v>-123.06</v>
+      </c>
+      <c r="M55">
+        <v>49.71</v>
+      </c>
+      <c r="Q55">
+        <v>951.4</v>
+      </c>
+      <c r="R55">
+        <v>18115</v>
+      </c>
+      <c r="S55">
+        <v>4.3500000000000201</v>
+      </c>
+      <c r="T55">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="U55">
+        <v>228</v>
+      </c>
+      <c r="V55">
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>7602</v>
+      </c>
+      <c r="B56">
+        <v>951.8</v>
+      </c>
+      <c r="C56">
+        <v>18148</v>
+      </c>
+      <c r="D56">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="E56">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="F56">
+        <v>79</v>
+      </c>
+      <c r="G56">
+        <v>10.23</v>
+      </c>
+      <c r="H56">
+        <v>6.97</v>
+      </c>
+      <c r="I56">
+        <v>229</v>
+      </c>
+      <c r="J56">
+        <v>12.3</v>
+      </c>
+      <c r="K56">
+        <v>44.28</v>
+      </c>
+      <c r="L56">
+        <v>-123.03</v>
+      </c>
+      <c r="M56">
+        <v>49.74</v>
+      </c>
+      <c r="Q56">
+        <v>951.8</v>
+      </c>
+      <c r="R56">
+        <v>18148</v>
+      </c>
+      <c r="S56">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="T56">
+        <v>-2.3499999999999699</v>
+      </c>
+      <c r="U56">
+        <v>229</v>
+      </c>
+      <c r="V56">
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>8318</v>
+      </c>
+      <c r="B57">
+        <v>970.7</v>
+      </c>
+      <c r="C57">
+        <v>20027</v>
+      </c>
+      <c r="D57">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="E57">
+        <v>-1.25</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>10.57</v>
+      </c>
+      <c r="H57">
+        <v>7.4</v>
+      </c>
+      <c r="I57">
+        <v>231</v>
+      </c>
+      <c r="J57">
+        <v>12.3</v>
+      </c>
+      <c r="K57">
+        <v>44.28</v>
+      </c>
+      <c r="L57">
+        <v>-123.03</v>
+      </c>
+      <c r="M57">
+        <v>49.74</v>
+      </c>
+      <c r="Q57">
+        <v>970.7</v>
+      </c>
+      <c r="R57">
+        <v>20027</v>
+      </c>
+      <c r="S57">
+        <v>4.8500000000000201</v>
+      </c>
+      <c r="T57">
+        <v>-1.25</v>
+      </c>
+      <c r="U57">
+        <v>231</v>
+      </c>
+      <c r="V57">
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>8364</v>
+      </c>
+      <c r="B58">
+        <v>995.7</v>
+      </c>
+      <c r="C58">
+        <v>20139</v>
+      </c>
+      <c r="D58">
+        <v>5.0500000000000096</v>
+      </c>
+      <c r="E58">
+        <v>-0.849999999999966</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>10.64</v>
+      </c>
+      <c r="H58">
+        <v>8.51</v>
+      </c>
+      <c r="I58">
+        <v>231</v>
+      </c>
+      <c r="J58">
+        <v>12.4</v>
+      </c>
+      <c r="K58">
+        <v>44.64</v>
+      </c>
+      <c r="L58">
+        <v>-123.02</v>
+      </c>
+      <c r="M58">
+        <v>49.76</v>
+      </c>
+      <c r="Q58">
+        <v>995.7</v>
+      </c>
+      <c r="R58">
+        <v>20139</v>
+      </c>
+      <c r="S58">
+        <v>5.0500000000000096</v>
+      </c>
+      <c r="T58">
+        <v>-0.849999999999966</v>
+      </c>
+      <c r="U58">
+        <v>231</v>
+      </c>
+      <c r="V58">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>8578</v>
+      </c>
+      <c r="B59">
+        <v>998.3</v>
+      </c>
+      <c r="C59">
+        <v>20746</v>
+      </c>
+      <c r="D59">
+        <v>5.1500000000000297</v>
+      </c>
+      <c r="E59">
+        <v>-0.75</v>
+      </c>
+      <c r="F59">
+        <v>81</v>
+      </c>
+      <c r="G59">
+        <v>10.71</v>
+      </c>
+      <c r="H59">
+        <v>8.6</v>
+      </c>
+      <c r="I59">
+        <v>231</v>
+      </c>
+      <c r="J59">
+        <v>12.6</v>
+      </c>
+      <c r="K59">
+        <v>45.36</v>
+      </c>
+      <c r="L59">
+        <v>-123.02</v>
+      </c>
+      <c r="M59">
+        <v>49.76</v>
+      </c>
+      <c r="Q59">
+        <v>998.3</v>
+      </c>
+      <c r="R59">
+        <v>20746</v>
+      </c>
+      <c r="S59">
+        <v>5.1500000000000297</v>
+      </c>
+      <c r="T59">
+        <v>-0.75</v>
+      </c>
+      <c r="U59">
+        <v>231</v>
+      </c>
+      <c r="V59">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>8584</v>
+      </c>
+      <c r="B60">
+        <v>999.8</v>
+      </c>
+      <c r="C60">
+        <v>20763</v>
+      </c>
+      <c r="D60">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="E60">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="F60">
+        <v>82</v>
+      </c>
+      <c r="G60">
+        <v>10.74</v>
+      </c>
+      <c r="H60">
+        <v>9.57</v>
+      </c>
+      <c r="I60">
+        <v>232</v>
+      </c>
+      <c r="J60">
+        <v>13.4</v>
+      </c>
+      <c r="K60">
+        <v>48.24</v>
+      </c>
+      <c r="L60">
+        <v>-123.01</v>
+      </c>
+      <c r="M60">
+        <v>49.76</v>
+      </c>
+      <c r="Q60">
+        <v>999.8</v>
+      </c>
+      <c r="R60">
+        <v>20763</v>
+      </c>
+      <c r="S60">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="T60">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="U60">
+        <v>232</v>
+      </c>
+      <c r="V60">
+        <v>48.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>8614</v>
+      </c>
+      <c r="B61">
+        <v>999.8</v>
+      </c>
+      <c r="C61">
+        <v>20844</v>
+      </c>
+      <c r="D61">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="E61">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="F61">
+        <v>82</v>
+      </c>
+      <c r="G61">
+        <v>11.16</v>
+      </c>
+      <c r="H61">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I61">
+        <v>360</v>
+      </c>
+      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>50.4</v>
+      </c>
+      <c r="L61">
+        <v>-123.01</v>
+      </c>
+      <c r="M61">
+        <v>49.76</v>
+      </c>
+      <c r="Q61">
+        <v>999.8</v>
+      </c>
+      <c r="R61">
+        <v>20844</v>
+      </c>
+      <c r="S61">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="T61">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="U61">
+        <v>360</v>
+      </c>
+      <c r="V61">
+        <v>50.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F76728-4745-4973-A79E-BBAE337FE035}">
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>999.8</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="E2">
+        <v>2.8500000000000201</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>-12.34</v>
+      </c>
+      <c r="H2">
+        <v>-0.43</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>12.3</v>
+      </c>
+      <c r="K2">
+        <v>44.28</v>
+      </c>
+      <c r="L2">
+        <v>-123.24</v>
+      </c>
+      <c r="M2">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>236</v>
+      </c>
+      <c r="B3" s="1">
+        <v>925.2</v>
+      </c>
+      <c r="C3">
+        <v>719</v>
+      </c>
+      <c r="D3">
+        <v>4.0500000000000096</v>
+      </c>
+      <c r="E3">
+        <v>-10.55</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+      <c r="H3">
+        <v>-8.4</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>8.4</v>
+      </c>
+      <c r="K3">
+        <v>30.24</v>
+      </c>
+      <c r="L3">
+        <v>-123.25</v>
+      </c>
+      <c r="M3">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>238</v>
+      </c>
+      <c r="B4" s="1">
+        <v>924.6</v>
+      </c>
+      <c r="C4">
+        <v>724</v>
+      </c>
+      <c r="D4">
+        <v>4.0500000000000096</v>
+      </c>
+      <c r="E4">
+        <v>-10.65</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>0.39</v>
+      </c>
+      <c r="H4">
+        <v>-8.4700000000000006</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>8.5</v>
+      </c>
+      <c r="K4">
+        <v>30.6</v>
+      </c>
+      <c r="L4">
+        <v>-123.25</v>
+      </c>
+      <c r="M4">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>498</v>
+      </c>
+      <c r="B5" s="1">
+        <v>850.2</v>
+      </c>
+      <c r="C5">
+        <v>1399</v>
+      </c>
+      <c r="D5">
+        <v>-1.75</v>
+      </c>
+      <c r="E5">
+        <v>-11.55</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H5">
+        <v>-7.39</v>
+      </c>
+      <c r="I5">
+        <v>119</v>
+      </c>
+      <c r="J5">
+        <v>8.5</v>
+      </c>
+      <c r="K5">
+        <v>30.6</v>
+      </c>
+      <c r="L5">
+        <v>-123.28</v>
+      </c>
+      <c r="M5">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>849.8</v>
+      </c>
+      <c r="C6">
+        <v>1402</v>
+      </c>
+      <c r="D6">
+        <v>-1.75</v>
+      </c>
+      <c r="E6">
+        <v>-11.45</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>4.12</v>
+      </c>
+      <c r="H6">
+        <v>-7.37</v>
+      </c>
+      <c r="I6">
+        <v>119</v>
+      </c>
+      <c r="J6">
+        <v>8.4</v>
+      </c>
+      <c r="K6">
+        <v>30.24</v>
+      </c>
+      <c r="L6">
+        <v>-123.28</v>
+      </c>
+      <c r="M6">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1212</v>
+      </c>
+      <c r="B7" s="1">
+        <v>700.2</v>
+      </c>
+      <c r="C7">
+        <v>2917</v>
+      </c>
+      <c r="D7">
+        <v>-10.95</v>
+      </c>
+      <c r="E7">
+        <v>-14.35</v>
+      </c>
+      <c r="F7">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>6.73</v>
+      </c>
+      <c r="H7">
+        <v>0.89</v>
+      </c>
+      <c r="I7">
+        <v>187</v>
+      </c>
+      <c r="J7">
+        <v>6.8</v>
+      </c>
+      <c r="K7">
+        <v>24.48</v>
+      </c>
+      <c r="L7">
+        <v>-123.31</v>
+      </c>
+      <c r="M7">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1214</v>
+      </c>
+      <c r="B8" s="1">
+        <v>699.7</v>
+      </c>
+      <c r="C8">
+        <v>2922</v>
+      </c>
+      <c r="D8">
+        <v>-10.95</v>
+      </c>
+      <c r="E8">
+        <v>-14.35</v>
+      </c>
+      <c r="F8">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>6.72</v>
+      </c>
+      <c r="H8">
+        <v>0.95</v>
+      </c>
+      <c r="I8">
+        <v>188</v>
+      </c>
+      <c r="J8">
+        <v>6.8</v>
+      </c>
+      <c r="K8">
+        <v>24.48</v>
+      </c>
+      <c r="L8">
+        <v>-123.31</v>
+      </c>
+      <c r="M8">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2366</v>
+      </c>
+      <c r="B9" s="1">
+        <v>500.2</v>
+      </c>
+      <c r="C9">
+        <v>5404</v>
+      </c>
+      <c r="D9">
+        <v>-28.75</v>
+      </c>
+      <c r="E9">
+        <v>-47.25</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>4.84</v>
+      </c>
+      <c r="H9">
+        <v>5.94</v>
+      </c>
+      <c r="I9">
+        <v>231</v>
+      </c>
+      <c r="J9">
+        <v>7.7</v>
+      </c>
+      <c r="K9">
+        <v>27.72</v>
+      </c>
+      <c r="L9">
+        <v>-123.23</v>
+      </c>
+      <c r="M9">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2368</v>
+      </c>
+      <c r="B10" s="1">
+        <v>499.9</v>
+      </c>
+      <c r="C10">
+        <v>5408</v>
+      </c>
+      <c r="D10">
+        <v>-28.75</v>
+      </c>
+      <c r="E10">
+        <v>-46.75</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>4.84</v>
+      </c>
+      <c r="H10">
+        <v>5.93</v>
+      </c>
+      <c r="I10">
+        <v>231</v>
+      </c>
+      <c r="J10">
+        <v>7.7</v>
+      </c>
+      <c r="K10">
+        <v>27.72</v>
+      </c>
+      <c r="L10">
+        <v>-123.23</v>
+      </c>
+      <c r="M10">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2370</v>
+      </c>
+      <c r="B11" s="1">
+        <v>499.6</v>
+      </c>
+      <c r="C11">
+        <v>5412</v>
+      </c>
+      <c r="D11">
+        <v>-28.75</v>
+      </c>
+      <c r="E11">
+        <v>-46.25</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H11">
+        <v>5.92</v>
+      </c>
+      <c r="I11">
+        <v>231</v>
+      </c>
+      <c r="J11">
+        <v>7.6</v>
+      </c>
+      <c r="K11">
+        <v>27.36</v>
+      </c>
+      <c r="L11">
+        <v>-123.23</v>
+      </c>
+      <c r="M11">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3074</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400.3</v>
+      </c>
+      <c r="C12">
+        <v>6963</v>
+      </c>
+      <c r="D12">
+        <v>-40.35</v>
+      </c>
+      <c r="E12">
+        <v>-48.75</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>7.77</v>
+      </c>
+      <c r="H12">
+        <v>3.66</v>
+      </c>
+      <c r="I12">
+        <v>205</v>
+      </c>
+      <c r="J12">
+        <v>8.6</v>
+      </c>
+      <c r="K12">
+        <v>30.96</v>
+      </c>
+      <c r="L12">
+        <v>-123.2</v>
+      </c>
+      <c r="M12">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3076</v>
+      </c>
+      <c r="B13" s="1">
+        <v>400.1</v>
+      </c>
+      <c r="C13">
+        <v>6967</v>
+      </c>
+      <c r="D13">
+        <v>-40.450000000000003</v>
+      </c>
+      <c r="E13">
+        <v>-48.85</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>7.76</v>
+      </c>
+      <c r="H13">
+        <v>3.65</v>
+      </c>
+      <c r="I13">
+        <v>205</v>
+      </c>
+      <c r="J13">
+        <v>8.6</v>
+      </c>
+      <c r="K13">
+        <v>30.96</v>
+      </c>
+      <c r="L13">
+        <v>-123.2</v>
+      </c>
+      <c r="M13">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3078</v>
+      </c>
+      <c r="B14" s="1">
+        <v>399.8</v>
+      </c>
+      <c r="C14">
+        <v>6972</v>
+      </c>
+      <c r="D14">
+        <v>-40.450000000000003</v>
+      </c>
+      <c r="E14">
+        <v>-48.75</v>
+      </c>
+      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>7.76</v>
+      </c>
+      <c r="H14">
+        <v>3.64</v>
+      </c>
+      <c r="I14">
+        <v>205</v>
+      </c>
+      <c r="J14">
+        <v>8.6</v>
+      </c>
+      <c r="K14">
+        <v>30.96</v>
+      </c>
+      <c r="L14">
+        <v>-123.2</v>
+      </c>
+      <c r="M14">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3080</v>
+      </c>
+      <c r="B15" s="1">
+        <v>399.5</v>
+      </c>
+      <c r="C15">
+        <v>6976</v>
+      </c>
+      <c r="D15">
+        <v>-40.450000000000003</v>
+      </c>
+      <c r="E15">
+        <v>-48.85</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>7.76</v>
+      </c>
+      <c r="H15">
+        <v>3.63</v>
+      </c>
+      <c r="I15">
+        <v>205</v>
+      </c>
+      <c r="J15">
+        <v>8.6</v>
+      </c>
+      <c r="K15">
+        <v>30.96</v>
+      </c>
+      <c r="L15">
+        <v>-123.2</v>
+      </c>
+      <c r="M15">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3920</v>
+      </c>
+      <c r="B16" s="1">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="C16">
+        <v>8856</v>
+      </c>
+      <c r="D16">
+        <v>-53.85</v>
+      </c>
+      <c r="E16">
+        <v>-67.25</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>13.01</v>
+      </c>
+      <c r="H16">
+        <v>7.7</v>
+      </c>
+      <c r="I16">
+        <v>211</v>
+      </c>
+      <c r="J16">
+        <v>15.1</v>
+      </c>
+      <c r="K16">
+        <v>54.36</v>
+      </c>
+      <c r="L16">
+        <v>-123.16</v>
+      </c>
+      <c r="M16">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3922</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300.2</v>
+      </c>
+      <c r="C17">
+        <v>8860</v>
+      </c>
+      <c r="D17">
+        <v>-53.75</v>
+      </c>
+      <c r="E17">
+        <v>-67.150000000000006</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>7.85</v>
+      </c>
+      <c r="I17">
+        <v>211</v>
+      </c>
+      <c r="J17">
+        <v>15.2</v>
+      </c>
+      <c r="K17">
+        <v>54.72</v>
+      </c>
+      <c r="L17">
+        <v>-123.16</v>
+      </c>
+      <c r="M17">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3924</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>8865</v>
+      </c>
+      <c r="D18">
+        <v>-53.75</v>
+      </c>
+      <c r="E18">
+        <v>-67.150000000000006</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>12.98</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>212</v>
+      </c>
+      <c r="J18">
+        <v>15.2</v>
+      </c>
+      <c r="K18">
+        <v>54.72</v>
+      </c>
+      <c r="L18">
+        <v>-123.16</v>
+      </c>
+      <c r="M18">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3926</v>
+      </c>
+      <c r="B19" s="1">
+        <v>299.8</v>
+      </c>
+      <c r="C19">
+        <v>8869</v>
+      </c>
+      <c r="D19">
+        <v>-53.85</v>
+      </c>
+      <c r="E19">
+        <v>-67.150000000000006</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>12.95</v>
+      </c>
+      <c r="H19">
+        <v>8.14</v>
+      </c>
+      <c r="I19">
+        <v>212</v>
+      </c>
+      <c r="J19">
+        <v>15.3</v>
+      </c>
+      <c r="K19">
+        <v>55.08</v>
+      </c>
+      <c r="L19">
+        <v>-123.16</v>
+      </c>
+      <c r="M19">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3928</v>
+      </c>
+      <c r="B20" s="1">
+        <v>299.5</v>
+      </c>
+      <c r="C20">
+        <v>8874</v>
+      </c>
+      <c r="D20">
+        <v>-53.95</v>
+      </c>
+      <c r="E20">
+        <v>-67.25</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>12.91</v>
+      </c>
+      <c r="H20">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I20">
+        <v>213</v>
+      </c>
+      <c r="J20">
+        <v>15.3</v>
+      </c>
+      <c r="K20">
+        <v>55.08</v>
+      </c>
+      <c r="L20">
+        <v>-123.16</v>
+      </c>
+      <c r="M20">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4422</v>
+      </c>
+      <c r="B21" s="1">
+        <v>250.4</v>
+      </c>
+      <c r="C21">
+        <v>10021</v>
+      </c>
+      <c r="D21">
+        <v>-53.95</v>
+      </c>
+      <c r="E21">
+        <v>-78.45</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>10.96</v>
+      </c>
+      <c r="H21">
+        <v>0.97</v>
+      </c>
+      <c r="I21">
+        <v>185</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>39.6</v>
+      </c>
+      <c r="L21">
+        <v>-123.13</v>
+      </c>
+      <c r="M21">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4424</v>
+      </c>
+      <c r="B22" s="1">
+        <v>250.2</v>
+      </c>
+      <c r="C22">
+        <v>10026</v>
+      </c>
+      <c r="D22">
+        <v>-53.95</v>
+      </c>
+      <c r="E22">
+        <v>-78.349999999999994</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>10.97</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>185</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>39.6</v>
+      </c>
+      <c r="L22">
+        <v>-123.13</v>
+      </c>
+      <c r="M22">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4426</v>
+      </c>
+      <c r="B23" s="1">
+        <v>250</v>
+      </c>
+      <c r="C23">
+        <v>10031</v>
+      </c>
+      <c r="D23">
+        <v>-53.95</v>
+      </c>
+      <c r="E23">
+        <v>-78.45</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>10.98</v>
+      </c>
+      <c r="H23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I23">
+        <v>186</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>39.6</v>
+      </c>
+      <c r="L23">
+        <v>-123.13</v>
+      </c>
+      <c r="M23">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4428</v>
+      </c>
+      <c r="B24" s="1">
+        <v>249.8</v>
+      </c>
+      <c r="C24">
+        <v>10036</v>
+      </c>
+      <c r="D24">
+        <v>-53.95</v>
+      </c>
+      <c r="E24">
+        <v>-78.45</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1.21</v>
+      </c>
+      <c r="I24">
+        <v>186</v>
+      </c>
+      <c r="J24">
+        <v>11.1</v>
+      </c>
+      <c r="K24">
+        <v>39.96</v>
+      </c>
+      <c r="L24">
+        <v>-123.13</v>
+      </c>
+      <c r="M24">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4430</v>
+      </c>
+      <c r="B25" s="1">
+        <v>249.7</v>
+      </c>
+      <c r="C25">
+        <v>10041</v>
+      </c>
+      <c r="D25">
+        <v>-53.85</v>
+      </c>
+      <c r="E25">
+        <v>-78.45</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>11.03</v>
+      </c>
+      <c r="H25">
+        <v>1.3</v>
+      </c>
+      <c r="I25">
+        <v>187</v>
+      </c>
+      <c r="J25">
+        <v>11.1</v>
+      </c>
+      <c r="K25">
+        <v>39.96</v>
+      </c>
+      <c r="L25">
+        <v>-123.13</v>
+      </c>
+      <c r="M25">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4432</v>
+      </c>
+      <c r="B26" s="1">
+        <v>249.5</v>
+      </c>
+      <c r="C26">
+        <v>10046</v>
+      </c>
+      <c r="D26">
+        <v>-53.85</v>
+      </c>
+      <c r="E26">
+        <v>-78.45</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>11.06</v>
+      </c>
+      <c r="H26">
+        <v>1.4</v>
+      </c>
+      <c r="I26">
+        <v>187</v>
+      </c>
+      <c r="J26">
+        <v>11.2</v>
+      </c>
+      <c r="K26">
+        <v>40.32</v>
+      </c>
+      <c r="L26">
+        <v>-123.13</v>
+      </c>
+      <c r="M26">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5030</v>
+      </c>
+      <c r="B27" s="2">
+        <v>200.4</v>
+      </c>
+      <c r="C27">
+        <v>11465</v>
+      </c>
+      <c r="D27">
+        <v>-49.45</v>
+      </c>
+      <c r="E27">
+        <v>-83.45</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.14</v>
+      </c>
+      <c r="H27">
+        <v>-2.14</v>
+      </c>
+      <c r="I27">
+        <v>169</v>
+      </c>
+      <c r="J27">
+        <v>11.3</v>
+      </c>
+      <c r="K27">
+        <v>40.68</v>
+      </c>
+      <c r="L27">
+        <v>-123.12</v>
+      </c>
+      <c r="M27">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5032</v>
+      </c>
+      <c r="B28" s="2">
+        <v>200.3</v>
+      </c>
+      <c r="C28">
+        <v>11471</v>
+      </c>
+      <c r="D28">
+        <v>-49.65</v>
+      </c>
+      <c r="E28">
+        <v>-83.55</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.22</v>
+      </c>
+      <c r="H28">
+        <v>-2.09</v>
+      </c>
+      <c r="I28">
+        <v>169</v>
+      </c>
+      <c r="J28">
+        <v>11.4</v>
+      </c>
+      <c r="K28">
+        <v>41.04</v>
+      </c>
+      <c r="L28">
+        <v>-123.12</v>
+      </c>
+      <c r="M28">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5034</v>
+      </c>
+      <c r="B29" s="2">
+        <v>200.1</v>
+      </c>
+      <c r="C29">
+        <v>11476</v>
+      </c>
+      <c r="D29">
+        <v>-49.75</v>
+      </c>
+      <c r="E29">
+        <v>-83.55</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.3</v>
+      </c>
+      <c r="H29">
+        <v>-2.04</v>
+      </c>
+      <c r="I29">
+        <v>170</v>
+      </c>
+      <c r="J29">
+        <v>11.5</v>
+      </c>
+      <c r="K29">
+        <v>41.4</v>
+      </c>
+      <c r="L29">
+        <v>-123.12</v>
+      </c>
+      <c r="M29">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5036</v>
+      </c>
+      <c r="B30" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="C30">
+        <v>11481</v>
+      </c>
+      <c r="D30">
+        <v>-49.75</v>
+      </c>
+      <c r="E30">
+        <v>-83.65</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.38</v>
+      </c>
+      <c r="H30">
+        <v>-1.99</v>
+      </c>
+      <c r="I30">
+        <v>170</v>
+      </c>
+      <c r="J30">
+        <v>11.6</v>
+      </c>
+      <c r="K30">
+        <v>41.76</v>
+      </c>
+      <c r="L30">
+        <v>-123.12</v>
+      </c>
+      <c r="M30">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5038</v>
+      </c>
+      <c r="B31" s="2">
+        <v>199.8</v>
+      </c>
+      <c r="C31">
+        <v>11486</v>
+      </c>
+      <c r="D31">
+        <v>-49.75</v>
+      </c>
+      <c r="E31">
+        <v>-83.65</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.48</v>
+      </c>
+      <c r="H31">
+        <v>-1.93</v>
+      </c>
+      <c r="I31">
+        <v>170</v>
+      </c>
+      <c r="J31">
+        <v>11.6</v>
+      </c>
+      <c r="K31">
+        <v>41.76</v>
+      </c>
+      <c r="L31">
+        <v>-123.13</v>
+      </c>
+      <c r="M31">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>5040</v>
+      </c>
+      <c r="B32" s="2">
+        <v>199.7</v>
+      </c>
+      <c r="C32">
+        <v>11490</v>
+      </c>
+      <c r="D32">
+        <v>-49.75</v>
+      </c>
+      <c r="E32">
+        <v>-83.65</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.58</v>
+      </c>
+      <c r="H32">
+        <v>-1.87</v>
+      </c>
+      <c r="I32">
+        <v>171</v>
+      </c>
+      <c r="J32">
+        <v>11.7</v>
+      </c>
+      <c r="K32">
+        <v>42.12</v>
+      </c>
+      <c r="L32">
+        <v>-123.13</v>
+      </c>
+      <c r="M32">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>5042</v>
+      </c>
+      <c r="B33" s="2">
+        <v>199.5</v>
+      </c>
+      <c r="C33">
+        <v>11495</v>
+      </c>
+      <c r="D33">
+        <v>-49.65</v>
+      </c>
+      <c r="E33">
+        <v>-83.55</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.69</v>
+      </c>
+      <c r="H33">
+        <v>-1.81</v>
+      </c>
+      <c r="I33">
+        <v>171</v>
+      </c>
+      <c r="J33">
+        <v>11.8</v>
+      </c>
+      <c r="K33">
+        <v>42.48</v>
+      </c>
+      <c r="L33">
+        <v>-123.13</v>
+      </c>
+      <c r="M33">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>5796</v>
+      </c>
+      <c r="B34" s="1">
+        <v>150.4</v>
+      </c>
+      <c r="C34">
+        <v>13349</v>
+      </c>
+      <c r="D34">
+        <v>-48.55</v>
+      </c>
+      <c r="E34">
+        <v>-82.75</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H34">
+        <v>3.2</v>
+      </c>
+      <c r="I34">
+        <v>199</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>36</v>
+      </c>
+      <c r="L34">
+        <v>-123.1</v>
+      </c>
+      <c r="M34">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>5798</v>
+      </c>
+      <c r="B35" s="1">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="C35">
+        <v>13354</v>
+      </c>
+      <c r="D35">
+        <v>-48.55</v>
+      </c>
+      <c r="E35">
+        <v>-82.75</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>9.52</v>
+      </c>
+      <c r="H35">
+        <v>3.25</v>
+      </c>
+      <c r="I35">
+        <v>199</v>
+      </c>
+      <c r="J35">
+        <v>10.1</v>
+      </c>
+      <c r="K35">
+        <v>36.36</v>
+      </c>
+      <c r="L35">
+        <v>-123.1</v>
+      </c>
+      <c r="M35">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>5800</v>
+      </c>
+      <c r="B36" s="1">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="C36">
+        <v>13359</v>
+      </c>
+      <c r="D36">
+        <v>-48.55</v>
+      </c>
+      <c r="E36">
+        <v>-82.75</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>9.56</v>
+      </c>
+      <c r="H36">
+        <v>3.3</v>
+      </c>
+      <c r="I36">
+        <v>199</v>
+      </c>
+      <c r="J36">
+        <v>10.1</v>
+      </c>
+      <c r="K36">
+        <v>36.36</v>
+      </c>
+      <c r="L36">
+        <v>-123.1</v>
+      </c>
+      <c r="M36">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>5802</v>
+      </c>
+      <c r="B37" s="1">
+        <v>150.1</v>
+      </c>
+      <c r="C37">
+        <v>13364</v>
+      </c>
+      <c r="D37">
+        <v>-48.45</v>
+      </c>
+      <c r="E37">
+        <v>-82.75</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>9.59</v>
+      </c>
+      <c r="H37">
+        <v>3.35</v>
+      </c>
+      <c r="I37">
+        <v>199</v>
+      </c>
+      <c r="J37">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K37">
+        <v>36.72</v>
+      </c>
+      <c r="L37">
+        <v>-123.1</v>
+      </c>
+      <c r="M37">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>5804</v>
+      </c>
+      <c r="B38" s="1">
+        <v>149.9</v>
+      </c>
+      <c r="C38">
+        <v>13369</v>
+      </c>
+      <c r="D38">
+        <v>-48.35</v>
+      </c>
+      <c r="E38">
+        <v>-82.65</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>9.61</v>
+      </c>
+      <c r="H38">
+        <v>3.4</v>
+      </c>
+      <c r="I38">
+        <v>199</v>
+      </c>
+      <c r="J38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K38">
+        <v>36.72</v>
+      </c>
+      <c r="L38">
+        <v>-123.1</v>
+      </c>
+      <c r="M38">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>5806</v>
+      </c>
+      <c r="B39" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C39">
+        <v>13374</v>
+      </c>
+      <c r="D39">
+        <v>-48.25</v>
+      </c>
+      <c r="E39">
+        <v>-82.55</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>9.61</v>
+      </c>
+      <c r="H39">
+        <v>3.45</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K39">
+        <v>36.72</v>
+      </c>
+      <c r="L39">
+        <v>-123.1</v>
+      </c>
+      <c r="M39">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>5808</v>
+      </c>
+      <c r="B40" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C40">
+        <v>13379</v>
+      </c>
+      <c r="D40">
+        <v>-48.15</v>
+      </c>
+      <c r="E40">
+        <v>-82.55</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>9.6</v>
+      </c>
+      <c r="H40">
+        <v>3.49</v>
+      </c>
+      <c r="I40">
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K40">
+        <v>36.72</v>
+      </c>
+      <c r="L40">
+        <v>-123.1</v>
+      </c>
+      <c r="M40">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>5810</v>
+      </c>
+      <c r="B41" s="1">
+        <v>149.6</v>
+      </c>
+      <c r="C41">
+        <v>13384</v>
+      </c>
+      <c r="D41">
+        <v>-48.15</v>
+      </c>
+      <c r="E41">
+        <v>-82.45</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>9.59</v>
+      </c>
+      <c r="H41">
+        <v>3.53</v>
+      </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K41">
+        <v>36.72</v>
+      </c>
+      <c r="L41">
+        <v>-123.1</v>
+      </c>
+      <c r="M41">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>5812</v>
+      </c>
+      <c r="B42" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="C42">
+        <v>13389</v>
+      </c>
+      <c r="D42">
+        <v>-48.15</v>
+      </c>
+      <c r="E42">
+        <v>-82.45</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>9.56</v>
+      </c>
+      <c r="H42">
+        <v>3.57</v>
+      </c>
+      <c r="I42">
+        <v>200</v>
+      </c>
+      <c r="J42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K42">
+        <v>36.72</v>
+      </c>
+      <c r="L42">
+        <v>-123.1</v>
+      </c>
+      <c r="M42">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>6788</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="C43">
+        <v>15982</v>
+      </c>
+      <c r="D43">
+        <v>-51.35</v>
+      </c>
+      <c r="E43">
+        <v>-84.75</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3.68</v>
+      </c>
+      <c r="H43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I43">
+        <v>228</v>
+      </c>
+      <c r="J43">
+        <v>5.5</v>
+      </c>
+      <c r="K43">
+        <v>19.8</v>
+      </c>
+      <c r="L43">
+        <v>-123.07</v>
+      </c>
+      <c r="M43">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>6790</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100.3</v>
+      </c>
+      <c r="C44">
+        <v>15987</v>
+      </c>
+      <c r="D44">
+        <v>-51.45</v>
+      </c>
+      <c r="E44">
+        <v>-84.75</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3.68</v>
+      </c>
+      <c r="H44">
+        <v>3.97</v>
+      </c>
+      <c r="I44">
+        <v>227</v>
+      </c>
+      <c r="J44">
+        <v>5.4</v>
+      </c>
+      <c r="K44">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="L44">
+        <v>-123.07</v>
+      </c>
+      <c r="M44">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>6792</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100.2</v>
+      </c>
+      <c r="C45">
+        <v>15992</v>
+      </c>
+      <c r="D45">
+        <v>-51.25</v>
+      </c>
+      <c r="E45">
+        <v>-84.65</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>3.68</v>
+      </c>
+      <c r="H45">
+        <v>3.84</v>
+      </c>
+      <c r="I45">
+        <v>226</v>
+      </c>
+      <c r="J45">
+        <v>5.3</v>
+      </c>
+      <c r="K45">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="L45">
+        <v>-123.06</v>
+      </c>
+      <c r="M45">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>6794</v>
+      </c>
+      <c r="B46" s="1">
+        <v>100.2</v>
+      </c>
+      <c r="C46">
+        <v>15996</v>
+      </c>
+      <c r="D46">
+        <v>-51.15</v>
+      </c>
+      <c r="E46">
+        <v>-84.65</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3.67</v>
+      </c>
+      <c r="H46">
+        <v>3.71</v>
+      </c>
+      <c r="I46">
+        <v>225</v>
+      </c>
+      <c r="J46">
+        <v>5.2</v>
+      </c>
+      <c r="K46">
+        <v>18.72</v>
+      </c>
+      <c r="L46">
+        <v>-123.06</v>
+      </c>
+      <c r="M46">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>6796</v>
+      </c>
+      <c r="B47" s="1">
+        <v>100.1</v>
+      </c>
+      <c r="C47">
+        <v>16001</v>
+      </c>
+      <c r="D47">
+        <v>-51.15</v>
+      </c>
+      <c r="E47">
+        <v>-84.65</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>3.66</v>
+      </c>
+      <c r="H47">
+        <v>3.58</v>
+      </c>
+      <c r="I47">
+        <v>224</v>
+      </c>
+      <c r="J47">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K47">
+        <v>18.36</v>
+      </c>
+      <c r="L47">
+        <v>-123.06</v>
+      </c>
+      <c r="M47">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>6798</v>
+      </c>
+      <c r="B48" s="1">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>16006</v>
+      </c>
+      <c r="D48">
+        <v>-51.15</v>
+      </c>
+      <c r="E48">
+        <v>-84.65</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3.64</v>
+      </c>
+      <c r="H48">
+        <v>3.45</v>
+      </c>
+      <c r="I48">
+        <v>223</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>18</v>
+      </c>
+      <c r="L48">
+        <v>-123.06</v>
+      </c>
+      <c r="M48">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>6800</v>
+      </c>
+      <c r="B49" s="1">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>16011</v>
+      </c>
+      <c r="D49">
+        <v>-51.15</v>
+      </c>
+      <c r="E49">
+        <v>-84.65</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3.64</v>
+      </c>
+      <c r="H49">
+        <v>3.33</v>
+      </c>
+      <c r="I49">
+        <v>222</v>
+      </c>
+      <c r="J49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K49">
+        <v>17.64</v>
+      </c>
+      <c r="L49">
+        <v>-123.06</v>
+      </c>
+      <c r="M49">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>6802</v>
+      </c>
+      <c r="B50" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="C50">
+        <v>16016</v>
+      </c>
+      <c r="D50">
+        <v>-51.25</v>
+      </c>
+      <c r="E50">
+        <v>-84.65</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>3.64</v>
+      </c>
+      <c r="H50">
+        <v>3.21</v>
+      </c>
+      <c r="I50">
+        <v>221</v>
+      </c>
+      <c r="J50">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K50">
+        <v>17.64</v>
+      </c>
+      <c r="L50">
+        <v>-123.06</v>
+      </c>
+      <c r="M50">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>6804</v>
+      </c>
+      <c r="B51" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="C51">
+        <v>16021</v>
+      </c>
+      <c r="D51">
+        <v>-51.25</v>
+      </c>
+      <c r="E51">
+        <v>-84.65</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>3.65</v>
+      </c>
+      <c r="H51">
+        <v>3.1</v>
+      </c>
+      <c r="I51">
+        <v>220</v>
+      </c>
+      <c r="J51">
+        <v>4.8</v>
+      </c>
+      <c r="K51">
+        <v>17.28</v>
+      </c>
+      <c r="L51">
+        <v>-123.06</v>
+      </c>
+      <c r="M51">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>6806</v>
+      </c>
+      <c r="B52" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="C52">
+        <v>16026</v>
+      </c>
+      <c r="D52">
+        <v>-51.35</v>
+      </c>
+      <c r="E52">
+        <v>-84.75</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3.68</v>
+      </c>
+      <c r="H52">
+        <v>2.99</v>
+      </c>
+      <c r="I52">
+        <v>219</v>
+      </c>
+      <c r="J52">
+        <v>4.7</v>
+      </c>
+      <c r="K52">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L52">
+        <v>-123.06</v>
+      </c>
+      <c r="M52">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>6808</v>
+      </c>
+      <c r="B53" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="C53">
+        <v>16031</v>
+      </c>
+      <c r="D53">
+        <v>-51.35</v>
+      </c>
+      <c r="E53">
+        <v>-84.75</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>3.72</v>
+      </c>
+      <c r="H53">
+        <v>2.88</v>
+      </c>
+      <c r="I53">
+        <v>218</v>
+      </c>
+      <c r="J53">
+        <v>4.7</v>
+      </c>
+      <c r="K53">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L53">
+        <v>-123.06</v>
+      </c>
+      <c r="M53">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>6810</v>
+      </c>
+      <c r="B54" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="C54">
+        <v>16036</v>
+      </c>
+      <c r="D54">
+        <v>-51.25</v>
+      </c>
+      <c r="E54">
+        <v>-84.65</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>3.79</v>
+      </c>
+      <c r="H54">
+        <v>2.78</v>
+      </c>
+      <c r="I54">
+        <v>216</v>
+      </c>
+      <c r="J54">
+        <v>4.7</v>
+      </c>
+      <c r="K54">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L54">
+        <v>-123.06</v>
+      </c>
+      <c r="M54">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>6812</v>
+      </c>
+      <c r="B55" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="C55">
+        <v>16041</v>
+      </c>
+      <c r="D55">
+        <v>-51.25</v>
+      </c>
+      <c r="E55">
+        <v>-84.65</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3.87</v>
+      </c>
+      <c r="H55">
+        <v>2.67</v>
+      </c>
+      <c r="I55">
+        <v>215</v>
+      </c>
+      <c r="J55">
+        <v>4.7</v>
+      </c>
+      <c r="K55">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L55">
+        <v>-123.06</v>
+      </c>
+      <c r="M55">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>7650</v>
+      </c>
+      <c r="B56" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C56">
+        <v>18274</v>
+      </c>
+      <c r="D56">
+        <v>-53.35</v>
+      </c>
+      <c r="E56">
+        <v>-86.15</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="H56">
+        <v>3.52</v>
+      </c>
+      <c r="I56">
+        <v>215</v>
+      </c>
+      <c r="J56">
+        <v>6.2</v>
+      </c>
+      <c r="K56">
+        <v>22.32</v>
+      </c>
+      <c r="L56">
+        <v>-123.03</v>
+      </c>
+      <c r="M56">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>7652</v>
+      </c>
+      <c r="B57" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="C57">
+        <v>18279</v>
+      </c>
+      <c r="D57">
+        <v>-53.35</v>
+      </c>
+      <c r="E57">
+        <v>-86.15</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H57">
+        <v>3.54</v>
+      </c>
+      <c r="I57">
+        <v>215</v>
+      </c>
+      <c r="J57">
+        <v>6.1</v>
+      </c>
+      <c r="K57">
+        <v>21.96</v>
+      </c>
+      <c r="L57">
+        <v>-123.03</v>
+      </c>
+      <c r="M57">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>7654</v>
+      </c>
+      <c r="B58" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="C58">
+        <v>18284</v>
+      </c>
+      <c r="D58">
+        <v>-53.35</v>
+      </c>
+      <c r="E58">
+        <v>-86.15</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>4.87</v>
+      </c>
+      <c r="H58">
+        <v>3.54</v>
+      </c>
+      <c r="I58">
+        <v>216</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>21.6</v>
+      </c>
+      <c r="L58">
+        <v>-123.03</v>
+      </c>
+      <c r="M58">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>7656</v>
+      </c>
+      <c r="B59" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="C59">
+        <v>18290</v>
+      </c>
+      <c r="D59">
+        <v>-53.35</v>
+      </c>
+      <c r="E59">
+        <v>-86.05</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>4.75</v>
+      </c>
+      <c r="H59">
+        <v>3.51</v>
+      </c>
+      <c r="I59">
+        <v>216</v>
+      </c>
+      <c r="J59">
+        <v>5.9</v>
+      </c>
+      <c r="K59">
+        <v>21.24</v>
+      </c>
+      <c r="L59">
+        <v>-123.03</v>
+      </c>
+      <c r="M59">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>7658</v>
+      </c>
+      <c r="B60" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="C60">
+        <v>18296</v>
+      </c>
+      <c r="D60">
+        <v>-53.25</v>
+      </c>
+      <c r="E60">
+        <v>-86.05</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H60">
+        <v>3.46</v>
+      </c>
+      <c r="I60">
+        <v>217</v>
+      </c>
+      <c r="J60">
+        <v>5.8</v>
+      </c>
+      <c r="K60">
+        <v>20.88</v>
+      </c>
+      <c r="L60">
+        <v>-123.03</v>
+      </c>
+      <c r="M60">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>7660</v>
+      </c>
+      <c r="B61" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C61">
+        <v>18301</v>
+      </c>
+      <c r="D61">
+        <v>-53.25</v>
+      </c>
+      <c r="E61">
+        <v>-86.05</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>4.43</v>
+      </c>
+      <c r="H61">
+        <v>3.39</v>
+      </c>
+      <c r="I61">
+        <v>217</v>
+      </c>
+      <c r="J61">
+        <v>5.6</v>
+      </c>
+      <c r="K61">
+        <v>20.16</v>
+      </c>
+      <c r="L61">
+        <v>-123.03</v>
+      </c>
+      <c r="M61">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>7662</v>
+      </c>
+      <c r="B62" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C62">
+        <v>18306</v>
+      </c>
+      <c r="D62">
+        <v>-53.15</v>
+      </c>
+      <c r="E62">
+        <v>-85.95</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>4.25</v>
+      </c>
+      <c r="H62">
+        <v>3.3</v>
+      </c>
+      <c r="I62">
+        <v>218</v>
+      </c>
+      <c r="J62">
+        <v>5.4</v>
+      </c>
+      <c r="K62">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="L62">
+        <v>-123.03</v>
+      </c>
+      <c r="M62">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>7664</v>
+      </c>
+      <c r="B63" s="3">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>18311</v>
+      </c>
+      <c r="D63">
+        <v>-52.85</v>
+      </c>
+      <c r="E63">
+        <v>-85.85</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>4.05</v>
+      </c>
+      <c r="H63">
+        <v>3.19</v>
+      </c>
+      <c r="I63">
+        <v>218</v>
+      </c>
+      <c r="J63">
+        <v>5.2</v>
+      </c>
+      <c r="K63">
+        <v>18.72</v>
+      </c>
+      <c r="L63">
+        <v>-123.03</v>
+      </c>
+      <c r="M63">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>7666</v>
+      </c>
+      <c r="B64" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C64">
+        <v>18316</v>
+      </c>
+      <c r="D64">
+        <v>-52.75</v>
+      </c>
+      <c r="E64">
+        <v>-85.75</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>3.83</v>
+      </c>
+      <c r="H64">
+        <v>3.06</v>
+      </c>
+      <c r="I64">
+        <v>219</v>
+      </c>
+      <c r="J64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K64">
+        <v>17.64</v>
+      </c>
+      <c r="L64">
+        <v>-123.03</v>
+      </c>
+      <c r="M64">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>7668</v>
+      </c>
+      <c r="B65" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C65">
+        <v>18321</v>
+      </c>
+      <c r="D65">
+        <v>-52.85</v>
+      </c>
+      <c r="E65">
+        <v>-85.75</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>3.62</v>
+      </c>
+      <c r="H65">
+        <v>2.93</v>
+      </c>
+      <c r="I65">
+        <v>219</v>
+      </c>
+      <c r="J65">
+        <v>4.7</v>
+      </c>
+      <c r="K65">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L65">
+        <v>-123.03</v>
+      </c>
+      <c r="M65">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>7670</v>
+      </c>
+      <c r="B66" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="C66">
+        <v>18326</v>
+      </c>
+      <c r="D66">
+        <v>-52.85</v>
+      </c>
+      <c r="E66">
+        <v>-85.75</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>3.4</v>
+      </c>
+      <c r="H66">
+        <v>2.8</v>
+      </c>
+      <c r="I66">
+        <v>219</v>
+      </c>
+      <c r="J66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K66">
+        <v>15.84</v>
+      </c>
+      <c r="L66">
+        <v>-123.03</v>
+      </c>
+      <c r="M66">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>7672</v>
+      </c>
+      <c r="B67" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="C67">
+        <v>18330</v>
+      </c>
+      <c r="D67">
+        <v>-52.85</v>
+      </c>
+      <c r="E67">
+        <v>-85.75</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>3.19</v>
+      </c>
+      <c r="H67">
+        <v>2.66</v>
+      </c>
+      <c r="I67">
+        <v>220</v>
+      </c>
+      <c r="J67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K67">
+        <v>14.76</v>
+      </c>
+      <c r="L67">
+        <v>-123.03</v>
+      </c>
+      <c r="M67">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>7674</v>
+      </c>
+      <c r="B68" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="C68">
+        <v>18335</v>
+      </c>
+      <c r="D68">
+        <v>-52.85</v>
+      </c>
+      <c r="E68">
+        <v>-85.75</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2.98</v>
+      </c>
+      <c r="H68">
+        <v>2.52</v>
+      </c>
+      <c r="I68">
+        <v>220</v>
+      </c>
+      <c r="J68">
+        <v>3.9</v>
+      </c>
+      <c r="K68">
+        <v>14.04</v>
+      </c>
+      <c r="L68">
+        <v>-123.03</v>
+      </c>
+      <c r="M68">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>7676</v>
+      </c>
+      <c r="B69" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="C69">
+        <v>18340</v>
+      </c>
+      <c r="D69">
+        <v>-52.85</v>
+      </c>
+      <c r="E69">
+        <v>-85.75</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2.78</v>
+      </c>
+      <c r="H69">
+        <v>2.39</v>
+      </c>
+      <c r="I69">
+        <v>221</v>
+      </c>
+      <c r="J69">
+        <v>3.7</v>
+      </c>
+      <c r="K69">
+        <v>13.32</v>
+      </c>
+      <c r="L69">
+        <v>-123.03</v>
+      </c>
+      <c r="M69">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>7678</v>
+      </c>
+      <c r="B70" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C70">
+        <v>18344</v>
+      </c>
+      <c r="D70">
+        <v>-52.85</v>
+      </c>
+      <c r="E70">
+        <v>-85.75</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>2.6</v>
+      </c>
+      <c r="H70">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I70">
+        <v>221</v>
+      </c>
+      <c r="J70">
+        <v>3.5</v>
+      </c>
+      <c r="K70">
+        <v>12.6</v>
+      </c>
+      <c r="L70">
+        <v>-123.03</v>
+      </c>
+      <c r="M70">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>7680</v>
+      </c>
+      <c r="B71" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C71">
+        <v>18348</v>
+      </c>
+      <c r="D71">
+        <v>-52.75</v>
+      </c>
+      <c r="E71">
+        <v>-85.75</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2.44</v>
+      </c>
+      <c r="H71">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I71">
+        <v>222</v>
+      </c>
+      <c r="J71">
+        <v>3.3</v>
+      </c>
+      <c r="K71">
+        <v>11.88</v>
+      </c>
+      <c r="L71">
+        <v>-123.02</v>
+      </c>
+      <c r="M71">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>7682</v>
+      </c>
+      <c r="B72" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="C72">
+        <v>18353</v>
+      </c>
+      <c r="D72">
+        <v>-52.65</v>
+      </c>
+      <c r="E72">
+        <v>-85.65</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H72">
+        <v>2.09</v>
+      </c>
+      <c r="I72">
+        <v>222</v>
+      </c>
+      <c r="J72">
+        <v>3.1</v>
+      </c>
+      <c r="K72">
+        <v>11.16</v>
+      </c>
+      <c r="L72">
+        <v>-123.02</v>
+      </c>
+      <c r="M72">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>7684</v>
+      </c>
+      <c r="B73" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="C73">
+        <v>18358</v>
+      </c>
+      <c r="D73">
+        <v>-52.55</v>
+      </c>
+      <c r="E73">
+        <v>-85.55</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2.19</v>
+      </c>
+      <c r="H73">
+        <v>2.02</v>
+      </c>
+      <c r="I73">
+        <v>223</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>10.8</v>
+      </c>
+      <c r="L73">
+        <v>-123.02</v>
+      </c>
+      <c r="M73">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>8472</v>
+      </c>
+      <c r="B74" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="C74">
+        <v>20437</v>
+      </c>
+      <c r="D74">
+        <v>-51.35</v>
+      </c>
+      <c r="E74">
+        <v>-84.65</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H74">
+        <v>-2.52</v>
+      </c>
+      <c r="I74">
+        <v>129</v>
+      </c>
+      <c r="J74">
+        <v>3.3</v>
+      </c>
+      <c r="K74">
+        <v>11.88</v>
+      </c>
+      <c r="L74">
+        <v>-123.02</v>
+      </c>
+      <c r="M74">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>8474</v>
+      </c>
+      <c r="B75" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="C75">
+        <v>20443</v>
+      </c>
+      <c r="D75">
+        <v>-51.25</v>
+      </c>
+      <c r="E75">
+        <v>-84.65</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>2.12</v>
+      </c>
+      <c r="H75">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="I75">
+        <v>130</v>
+      </c>
+      <c r="J75">
+        <v>3.3</v>
+      </c>
+      <c r="K75">
+        <v>11.88</v>
+      </c>
+      <c r="L75">
+        <v>-123.02</v>
+      </c>
+      <c r="M75">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>8476</v>
+      </c>
+      <c r="B76" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="C76">
+        <v>20449</v>
+      </c>
+      <c r="D76">
+        <v>-51.15</v>
+      </c>
+      <c r="E76">
+        <v>-84.55</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>2.17</v>
+      </c>
+      <c r="H76">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="I76">
+        <v>131</v>
+      </c>
+      <c r="J76">
+        <v>3.3</v>
+      </c>
+      <c r="K76">
+        <v>11.88</v>
+      </c>
+      <c r="L76">
+        <v>-123.02</v>
+      </c>
+      <c r="M76">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>8478</v>
+      </c>
+      <c r="B77" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="C77">
+        <v>20454</v>
+      </c>
+      <c r="D77">
+        <v>-51.15</v>
+      </c>
+      <c r="E77">
+        <v>-84.55</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>2.23</v>
+      </c>
+      <c r="H77">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="I77">
+        <v>132</v>
+      </c>
+      <c r="J77">
+        <v>3.3</v>
+      </c>
+      <c r="K77">
+        <v>11.88</v>
+      </c>
+      <c r="L77">
+        <v>-123.02</v>
+      </c>
+      <c r="M77">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>8480</v>
+      </c>
+      <c r="B78" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="C78">
+        <v>20460</v>
+      </c>
+      <c r="D78">
+        <v>-51.15</v>
+      </c>
+      <c r="E78">
+        <v>-84.65</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H78">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="I78">
+        <v>133</v>
+      </c>
+      <c r="J78">
+        <v>3.4</v>
+      </c>
+      <c r="K78">
+        <v>12.24</v>
+      </c>
+      <c r="L78">
+        <v>-123.02</v>
+      </c>
+      <c r="M78">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>8482</v>
+      </c>
+      <c r="B79" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="C79">
+        <v>20467</v>
+      </c>
+      <c r="D79">
+        <v>-51.15</v>
+      </c>
+      <c r="E79">
+        <v>-84.65</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2.37</v>
+      </c>
+      <c r="H79">
+        <v>-2.52</v>
+      </c>
+      <c r="I79">
+        <v>133</v>
+      </c>
+      <c r="J79">
+        <v>3.5</v>
+      </c>
+      <c r="K79">
+        <v>12.6</v>
+      </c>
+      <c r="L79">
+        <v>-123.02</v>
+      </c>
+      <c r="M79">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>8484</v>
+      </c>
+      <c r="B80" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="C80">
+        <v>20472</v>
+      </c>
+      <c r="D80">
+        <v>-51.15</v>
+      </c>
+      <c r="E80">
+        <v>-84.55</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H80">
+        <v>-2.56</v>
+      </c>
+      <c r="I80">
+        <v>134</v>
+      </c>
+      <c r="J80">
+        <v>3.5</v>
+      </c>
+      <c r="K80">
+        <v>12.6</v>
+      </c>
+      <c r="L80">
+        <v>-123.02</v>
+      </c>
+      <c r="M80">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>8486</v>
+      </c>
+      <c r="B81" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="C81">
+        <v>20477</v>
+      </c>
+      <c r="D81">
+        <v>-51.15</v>
+      </c>
+      <c r="E81">
+        <v>-84.65</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H81">
+        <v>-2.63</v>
+      </c>
+      <c r="I81">
+        <v>134</v>
+      </c>
+      <c r="J81">
+        <v>3.6</v>
+      </c>
+      <c r="K81">
+        <v>12.96</v>
+      </c>
+      <c r="L81">
+        <v>-123.02</v>
+      </c>
+      <c r="M81">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>8488</v>
+      </c>
+      <c r="B82" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="C82">
+        <v>20482</v>
+      </c>
+      <c r="D82">
+        <v>-51.25</v>
+      </c>
+      <c r="E82">
+        <v>-84.65</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2.61</v>
+      </c>
+      <c r="H82">
+        <v>-2.7</v>
+      </c>
+      <c r="I82">
+        <v>134</v>
+      </c>
+      <c r="J82">
+        <v>3.8</v>
+      </c>
+      <c r="K82">
+        <v>13.68</v>
+      </c>
+      <c r="L82">
+        <v>-123.02</v>
+      </c>
+      <c r="M82">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>8490</v>
+      </c>
+      <c r="B83" s="1">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>20488</v>
+      </c>
+      <c r="D83">
+        <v>-51.25</v>
+      </c>
+      <c r="E83">
+        <v>-84.65</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>2.69</v>
+      </c>
+      <c r="H83">
+        <v>-2.78</v>
+      </c>
+      <c r="I83">
+        <v>134</v>
+      </c>
+      <c r="J83">
+        <v>3.9</v>
+      </c>
+      <c r="K83">
+        <v>14.04</v>
+      </c>
+      <c r="L83">
+        <v>-123.02</v>
+      </c>
+      <c r="M83">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>8492</v>
+      </c>
+      <c r="B84" s="1">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>20495</v>
+      </c>
+      <c r="D84">
+        <v>-51.25</v>
+      </c>
+      <c r="E84">
+        <v>-84.65</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>2.78</v>
+      </c>
+      <c r="H84">
+        <v>-2.86</v>
+      </c>
+      <c r="I84">
+        <v>134</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>14.4</v>
+      </c>
+      <c r="L84">
+        <v>-123.02</v>
+      </c>
+      <c r="M84">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>8494</v>
+      </c>
+      <c r="B85" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="C85">
+        <v>20501</v>
+      </c>
+      <c r="D85">
+        <v>-51.25</v>
+      </c>
+      <c r="E85">
+        <v>-84.65</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>2.87</v>
+      </c>
+      <c r="H85">
+        <v>-2.95</v>
+      </c>
+      <c r="I85">
+        <v>134</v>
+      </c>
+      <c r="J85">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K85">
+        <v>14.76</v>
+      </c>
+      <c r="L85">
+        <v>-123.02</v>
+      </c>
+      <c r="M85">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>8496</v>
+      </c>
+      <c r="B86" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="C86">
+        <v>20507</v>
+      </c>
+      <c r="D86">
+        <v>-51.35</v>
+      </c>
+      <c r="E86">
+        <v>-84.75</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>2.96</v>
+      </c>
+      <c r="H86">
+        <v>-3.04</v>
+      </c>
+      <c r="I86">
+        <v>134</v>
+      </c>
+      <c r="J86">
+        <v>4.2</v>
+      </c>
+      <c r="K86">
+        <v>15.12</v>
+      </c>
+      <c r="L86">
+        <v>-123.02</v>
+      </c>
+      <c r="M86">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>8498</v>
+      </c>
+      <c r="B87" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="C87">
+        <v>20512</v>
+      </c>
+      <c r="D87">
+        <v>-51.35</v>
+      </c>
+      <c r="E87">
+        <v>-84.75</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3.06</v>
+      </c>
+      <c r="H87">
+        <v>-3.12</v>
+      </c>
+      <c r="I87">
+        <v>134</v>
+      </c>
+      <c r="J87">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K87">
+        <v>15.84</v>
+      </c>
+      <c r="L87">
+        <v>-123.02</v>
+      </c>
+      <c r="M87">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>8500</v>
+      </c>
+      <c r="B88" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="C88">
+        <v>20519</v>
+      </c>
+      <c r="D88">
+        <v>-51.45</v>
+      </c>
+      <c r="E88">
+        <v>-84.75</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3.15</v>
+      </c>
+      <c r="H88">
+        <v>-3.2</v>
+      </c>
+      <c r="I88">
+        <v>135</v>
+      </c>
+      <c r="J88">
+        <v>4.5</v>
+      </c>
+      <c r="K88">
+        <v>16.2</v>
+      </c>
+      <c r="L88">
+        <v>-123.02</v>
+      </c>
+      <c r="M88">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>8502</v>
+      </c>
+      <c r="B89" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="C89">
+        <v>20525</v>
+      </c>
+      <c r="D89">
+        <v>-51.35</v>
+      </c>
+      <c r="E89">
+        <v>-84.75</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>3.24</v>
+      </c>
+      <c r="H89">
+        <v>-3.28</v>
+      </c>
+      <c r="I89">
+        <v>135</v>
+      </c>
+      <c r="J89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K89">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="L89">
+        <v>-123.02</v>
+      </c>
+      <c r="M89">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>8504</v>
+      </c>
+      <c r="B90" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="C90">
+        <v>20530</v>
+      </c>
+      <c r="D90">
+        <v>-51.35</v>
+      </c>
+      <c r="E90">
+        <v>-84.75</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>3.33</v>
+      </c>
+      <c r="H90">
+        <v>-3.35</v>
+      </c>
+      <c r="I90">
+        <v>135</v>
+      </c>
+      <c r="J90">
+        <v>4.7</v>
+      </c>
+      <c r="K90">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L90">
+        <v>-123.02</v>
+      </c>
+      <c r="M90">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>8506</v>
+      </c>
+      <c r="B91" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="C91">
+        <v>20536</v>
+      </c>
+      <c r="D91">
+        <v>-51.45</v>
+      </c>
+      <c r="E91">
+        <v>-84.75</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>3.43</v>
+      </c>
+      <c r="H91">
+        <v>-3.41</v>
+      </c>
+      <c r="I91">
+        <v>135</v>
+      </c>
+      <c r="J91">
+        <v>4.8</v>
+      </c>
+      <c r="K91">
+        <v>17.28</v>
+      </c>
+      <c r="L91">
+        <v>-123.02</v>
+      </c>
+      <c r="M91">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>8508</v>
+      </c>
+      <c r="B92" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="C92">
+        <v>20543</v>
+      </c>
+      <c r="D92">
+        <v>-51.45</v>
+      </c>
+      <c r="E92">
+        <v>-84.85</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>3.52</v>
+      </c>
+      <c r="H92">
+        <v>-3.47</v>
+      </c>
+      <c r="I92">
+        <v>135</v>
+      </c>
+      <c r="J92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K92">
+        <v>17.64</v>
+      </c>
+      <c r="L92">
+        <v>-123.02</v>
+      </c>
+      <c r="M92">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>8510</v>
+      </c>
+      <c r="B93" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="C93">
+        <v>20549</v>
+      </c>
+      <c r="D93">
+        <v>-51.45</v>
+      </c>
+      <c r="E93">
+        <v>-84.75</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>3.61</v>
+      </c>
+      <c r="H93">
+        <v>-3.52</v>
+      </c>
+      <c r="I93">
+        <v>136</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>18</v>
+      </c>
+      <c r="L93">
+        <v>-123.02</v>
+      </c>
+      <c r="M93">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>8512</v>
+      </c>
+      <c r="B94" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="C94">
+        <v>20554</v>
+      </c>
+      <c r="D94">
+        <v>-51.45</v>
+      </c>
+      <c r="E94">
+        <v>-84.75</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>3.7</v>
+      </c>
+      <c r="H94">
+        <v>-3.57</v>
+      </c>
+      <c r="I94">
+        <v>136</v>
+      </c>
+      <c r="J94">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K94">
+        <v>18.36</v>
+      </c>
+      <c r="L94">
+        <v>-123.02</v>
+      </c>
+      <c r="M94">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>8514</v>
+      </c>
+      <c r="B95" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="C95">
+        <v>20560</v>
+      </c>
+      <c r="D95">
+        <v>-51.45</v>
+      </c>
+      <c r="E95">
+        <v>-84.85</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>3.79</v>
+      </c>
+      <c r="H95">
+        <v>-3.61</v>
+      </c>
+      <c r="I95">
+        <v>136</v>
+      </c>
+      <c r="J95">
+        <v>5.2</v>
+      </c>
+      <c r="K95">
+        <v>18.72</v>
+      </c>
+      <c r="L95">
+        <v>-123.02</v>
+      </c>
+      <c r="M95">
+        <v>49.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M95">
+    <sortCondition descending="1" ref="B2:B95"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab 12/Problem 1.xlsx
+++ b/Lab 12/Problem 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBC0F4-A104-4181-A415-CEA6A335B04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFFBAF1-AE19-4112-A53A-F19D60090F2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FA0A38-7381-4D8C-A322-E2EF3CC535BA}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -895,81 +895,81 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>850.2</v>
+        <v>999.8</v>
       </c>
       <c r="C3">
-        <v>1399</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>-1.75</v>
+        <v>6.0500000000000096</v>
       </c>
       <c r="E3">
-        <v>-11.55</v>
+        <v>2.8500000000000201</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>4.1399999999999997</v>
+        <v>-12.34</v>
       </c>
       <c r="H3">
-        <v>-7.39</v>
+        <v>-0.43</v>
       </c>
       <c r="I3">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>8.5</v>
+        <v>12.3</v>
       </c>
       <c r="K3">
-        <v>30.6</v>
+        <v>44.28</v>
       </c>
       <c r="L3">
-        <v>-123.28</v>
+        <v>-123.24</v>
       </c>
       <c r="M3">
-        <v>49.26</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>916.4</v>
+        <v>998.3</v>
       </c>
       <c r="C4">
-        <v>797</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>3.3500000000000201</v>
+        <v>4.8500000000000201</v>
       </c>
       <c r="E4">
-        <v>-11.05</v>
+        <v>-1.25</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>0.72</v>
+        <v>1.56</v>
       </c>
       <c r="H4">
-        <v>-8.9600000000000009</v>
+        <v>1.38</v>
       </c>
       <c r="I4">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
-        <v>32.4</v>
+        <v>7.56</v>
       </c>
       <c r="L4">
-        <v>-123.25</v>
+        <v>-123.24</v>
       </c>
       <c r="M4">
         <v>49.25</v>
@@ -977,1724 +977,1724 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>8578</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>48.1</v>
+        <v>970.7</v>
       </c>
       <c r="C5">
-        <v>20746</v>
+        <v>329</v>
       </c>
       <c r="D5">
-        <v>-52.15</v>
+        <v>4.3500000000000201</v>
       </c>
       <c r="E5">
-        <v>-85.25</v>
+        <v>-0.849999999999966</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G5">
-        <v>3.32</v>
+        <v>-0.11</v>
       </c>
       <c r="H5">
-        <v>-5.92</v>
+        <v>-0.47</v>
       </c>
       <c r="I5">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="J5">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>24.48</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>-123.02</v>
+        <v>-123.24</v>
       </c>
       <c r="M5">
-        <v>49.76</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>8364</v>
+        <v>140</v>
       </c>
       <c r="B6">
-        <v>52.8</v>
+        <v>951.4</v>
       </c>
       <c r="C6">
-        <v>20139</v>
+        <v>492</v>
       </c>
       <c r="D6">
-        <v>-50.35</v>
+        <v>3.6500000000000301</v>
       </c>
       <c r="E6">
-        <v>-84.05</v>
+        <v>-2.3499999999999699</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>4.5999999999999996</v>
+        <v>-1.18</v>
       </c>
       <c r="H6">
-        <v>-4.57</v>
+        <v>-3.68</v>
       </c>
       <c r="I6">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="K6">
-        <v>23.4</v>
+        <v>14.04</v>
       </c>
       <c r="L6">
-        <v>-123.01</v>
+        <v>-123.24</v>
       </c>
       <c r="M6">
-        <v>49.76</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>7602</v>
+        <v>178</v>
       </c>
       <c r="B7">
-        <v>71.8</v>
+        <v>942</v>
       </c>
       <c r="C7">
-        <v>18148</v>
+        <v>573</v>
       </c>
       <c r="D7">
-        <v>-54.45</v>
+        <v>4.8500000000000201</v>
       </c>
       <c r="E7">
-        <v>-86.95</v>
+        <v>-8.25</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>6.85</v>
+        <v>-0.69</v>
       </c>
       <c r="H7">
-        <v>1.38</v>
+        <v>-5.18</v>
       </c>
       <c r="I7">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="K7">
-        <v>25.2</v>
+        <v>18.72</v>
       </c>
       <c r="L7">
-        <v>-123.03</v>
+        <v>-123.24</v>
       </c>
       <c r="M7">
-        <v>49.74</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>6940</v>
+        <v>262</v>
       </c>
       <c r="B8">
-        <v>94.7</v>
+        <v>916.4</v>
       </c>
       <c r="C8">
-        <v>16360</v>
+        <v>797</v>
       </c>
       <c r="D8">
-        <v>-50.45</v>
+        <v>3.3500000000000201</v>
       </c>
       <c r="E8">
-        <v>-84.05</v>
+        <v>-11.05</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>10.71</v>
+        <v>0.72</v>
       </c>
       <c r="H8">
-        <v>3.67</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="I8">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="J8">
-        <v>11.3</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>40.68</v>
+        <v>32.4</v>
       </c>
       <c r="L8">
-        <v>-123.06</v>
+        <v>-123.25</v>
       </c>
       <c r="M8">
-        <v>49.71</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>6220</v>
+        <v>394</v>
       </c>
       <c r="B9">
-        <v>126.6</v>
+        <v>875</v>
       </c>
       <c r="C9">
-        <v>14472</v>
+        <v>1170</v>
       </c>
       <c r="D9">
-        <v>-51.65</v>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <v>-84.95</v>
+        <v>-13.65</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>9.68</v>
+        <v>3.16</v>
       </c>
       <c r="H9">
-        <v>0.61</v>
+        <v>-7.91</v>
       </c>
       <c r="I9">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="J9">
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="K9">
-        <v>34.92</v>
+        <v>30.6</v>
       </c>
       <c r="L9">
-        <v>-123.09</v>
+        <v>-123.27</v>
       </c>
       <c r="M9">
-        <v>49.67</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>5814</v>
+        <v>498</v>
       </c>
       <c r="B10">
-        <v>149.4</v>
+        <v>850.2</v>
       </c>
       <c r="C10">
-        <v>13394</v>
+        <v>1399</v>
       </c>
       <c r="D10">
-        <v>-48.15</v>
+        <v>-1.75</v>
       </c>
       <c r="E10">
-        <v>-82.45</v>
+        <v>-11.55</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>9.52</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="H10">
-        <v>3.61</v>
+        <v>-7.39</v>
       </c>
       <c r="I10">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="J10">
-        <v>10.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K10">
-        <v>36.72</v>
+        <v>30.6</v>
       </c>
       <c r="L10">
-        <v>-123.1</v>
+        <v>-123.28</v>
       </c>
       <c r="M10">
-        <v>49.64</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>4856</v>
+        <v>632</v>
       </c>
       <c r="B11">
-        <v>213.2</v>
+        <v>819.2</v>
       </c>
       <c r="C11">
-        <v>11062</v>
+        <v>1693</v>
       </c>
       <c r="D11">
-        <v>-50.55</v>
+        <v>-3.5499999999999501</v>
       </c>
       <c r="E11">
-        <v>-84.05</v>
+        <v>-9.8499999999999694</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <v>8.64</v>
+        <v>6.92</v>
       </c>
       <c r="H11">
-        <v>0.41</v>
+        <v>-6.11</v>
       </c>
       <c r="I11">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="J11">
-        <v>8.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K11">
-        <v>30.96</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="L11">
-        <v>-123.12</v>
+        <v>-123.29</v>
       </c>
       <c r="M11">
-        <v>49.57</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>4720</v>
+        <v>530</v>
       </c>
       <c r="B12">
-        <v>224.4</v>
+        <v>842.4</v>
       </c>
       <c r="C12">
-        <v>10728</v>
+        <v>1472</v>
       </c>
       <c r="D12">
-        <v>-51.95</v>
+        <v>-2.1499999999999799</v>
       </c>
       <c r="E12">
-        <v>-80.650000000000006</v>
+        <v>-9.3499999999999694</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G12">
-        <v>10.64</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H12">
-        <v>-0.2</v>
+        <v>-6.92</v>
       </c>
       <c r="I12">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="J12">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="K12">
-        <v>38.159999999999997</v>
+        <v>30.6</v>
       </c>
       <c r="L12">
-        <v>-123.12</v>
+        <v>-123.28</v>
       </c>
       <c r="M12">
-        <v>49.56</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>4592</v>
+        <v>662</v>
       </c>
       <c r="B13">
-        <v>234.9</v>
+        <v>813.1</v>
       </c>
       <c r="C13">
-        <v>10434</v>
+        <v>1752</v>
       </c>
       <c r="D13">
-        <v>-52.85</v>
+        <v>-3.94999999999999</v>
       </c>
       <c r="E13">
-        <v>-81.150000000000006</v>
+        <v>-8.25</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G13">
-        <v>8.82</v>
+        <v>6.86</v>
       </c>
       <c r="H13">
-        <v>0.63</v>
+        <v>-6.06</v>
       </c>
       <c r="I13">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="J13">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K13">
-        <v>31.68</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="L13">
-        <v>-123.12</v>
+        <v>-123.29</v>
       </c>
       <c r="M13">
-        <v>49.55</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>4270</v>
+        <v>880</v>
       </c>
       <c r="B14">
-        <v>265.10000000000002</v>
+        <v>766.8</v>
       </c>
       <c r="C14">
-        <v>9655</v>
+        <v>2212</v>
       </c>
       <c r="D14">
-        <v>-53.85</v>
+        <v>-6.5499999999999501</v>
       </c>
       <c r="E14">
-        <v>-76.650000000000006</v>
+        <v>-9.25</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>9.34</v>
+        <v>8.57</v>
       </c>
       <c r="H14">
-        <v>-1.26</v>
+        <v>-2.89</v>
       </c>
       <c r="I14">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J14">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>33.840000000000003</v>
+        <v>32.4</v>
       </c>
       <c r="L14">
-        <v>-123.13</v>
+        <v>-123.31</v>
       </c>
       <c r="M14">
-        <v>49.52</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>4170</v>
+        <v>822</v>
       </c>
       <c r="B15">
-        <v>274.5</v>
+        <v>779.8</v>
       </c>
       <c r="C15">
-        <v>9433</v>
+        <v>2081</v>
       </c>
       <c r="D15">
-        <v>-54.65</v>
+        <v>-5.6499999999999799</v>
       </c>
       <c r="E15">
-        <v>-67.650000000000006</v>
+        <v>-11.95</v>
       </c>
       <c r="F15">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G15">
-        <v>8.98</v>
+        <v>10.57</v>
       </c>
       <c r="H15">
-        <v>5.56</v>
+        <v>-3.34</v>
       </c>
       <c r="I15">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="J15">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="K15">
-        <v>38.159999999999997</v>
+        <v>39.96</v>
       </c>
       <c r="L15">
-        <v>-123.13</v>
+        <v>-123.3</v>
       </c>
       <c r="M15">
-        <v>49.51</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>4106</v>
+        <v>1114</v>
       </c>
       <c r="B16">
-        <v>280.8</v>
+        <v>718.6</v>
       </c>
       <c r="C16">
-        <v>9288</v>
+        <v>2717</v>
       </c>
       <c r="D16">
-        <v>-55.15</v>
+        <v>-9.5499999999999599</v>
       </c>
       <c r="E16">
-        <v>-66.849999999999994</v>
+        <v>-12.55</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>10.18</v>
+        <v>7.16</v>
       </c>
       <c r="H16">
-        <v>7.4</v>
+        <v>0.69</v>
       </c>
       <c r="I16">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="J16">
-        <v>12.6</v>
+        <v>7.2</v>
       </c>
       <c r="K16">
-        <v>45.36</v>
+        <v>25.92</v>
       </c>
       <c r="L16">
-        <v>-123.14</v>
+        <v>-123.31</v>
       </c>
       <c r="M16">
-        <v>49.51</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>4056</v>
+        <v>1086</v>
       </c>
       <c r="B17">
-        <v>285.89999999999998</v>
+        <v>724.3</v>
       </c>
       <c r="C17">
-        <v>9172</v>
+        <v>2656</v>
       </c>
       <c r="D17">
-        <v>-54.85</v>
+        <v>-9.1499999999999808</v>
       </c>
       <c r="E17">
-        <v>-65.75</v>
+        <v>-13.45</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>10.23</v>
+        <v>7.2</v>
       </c>
       <c r="H17">
-        <v>8.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I17">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="J17">
-        <v>13.4</v>
+        <v>7.2</v>
       </c>
       <c r="K17">
-        <v>48.24</v>
+        <v>25.92</v>
       </c>
       <c r="L17">
-        <v>-123.14</v>
+        <v>-123.31</v>
       </c>
       <c r="M17">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4014</v>
+        <v>1430</v>
       </c>
       <c r="B18">
-        <v>290.39999999999998</v>
+        <v>661.2</v>
       </c>
       <c r="C18">
-        <v>9073</v>
+        <v>3355</v>
       </c>
       <c r="D18">
-        <v>-54.65</v>
+        <v>-13.85</v>
       </c>
       <c r="E18">
-        <v>-71.45</v>
+        <v>-22.05</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>11.16</v>
+        <v>6.95</v>
       </c>
       <c r="H18">
-        <v>8.51</v>
+        <v>-0.13</v>
       </c>
       <c r="I18">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>50.4</v>
+        <v>25.2</v>
       </c>
       <c r="L18">
-        <v>-123.15</v>
+        <v>-123.31</v>
       </c>
       <c r="M18">
-        <v>49.5</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3604</v>
+        <v>1592</v>
       </c>
       <c r="B19">
-        <v>336.2</v>
+        <v>631.70000000000005</v>
       </c>
       <c r="C19">
-        <v>8128</v>
+        <v>3700</v>
       </c>
       <c r="D19">
-        <v>-50.15</v>
+        <v>-16.95</v>
       </c>
       <c r="E19">
-        <v>-56.15</v>
+        <v>-22.05</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G19">
-        <v>7.39</v>
+        <v>6.62</v>
       </c>
       <c r="H19">
-        <v>3.46</v>
+        <v>1.55</v>
       </c>
       <c r="I19">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J19">
-        <v>8.1999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="K19">
-        <v>29.52</v>
+        <v>24.48</v>
       </c>
       <c r="L19">
-        <v>-123.18</v>
+        <v>-123.3</v>
       </c>
       <c r="M19">
-        <v>49.46</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>3452</v>
+        <v>2150</v>
       </c>
       <c r="B20">
-        <v>356.4</v>
+        <v>533.6</v>
       </c>
       <c r="C20">
-        <v>7743</v>
+        <v>4939</v>
       </c>
       <c r="D20">
-        <v>-46.45</v>
+        <v>-27.65</v>
       </c>
       <c r="E20">
-        <v>-55.55</v>
+        <v>-29.75</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>8.31</v>
+        <v>7.88</v>
       </c>
       <c r="H20">
-        <v>2.0499999999999998</v>
+        <v>9.57</v>
       </c>
       <c r="I20">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="J20">
-        <v>8.6</v>
+        <v>12.4</v>
       </c>
       <c r="K20">
-        <v>30.96</v>
+        <v>44.64</v>
       </c>
       <c r="L20">
-        <v>-123.18</v>
+        <v>-123.26</v>
       </c>
       <c r="M20">
-        <v>49.45</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3262</v>
+        <v>2446</v>
       </c>
       <c r="B21">
-        <v>378.1</v>
+        <v>488.5</v>
       </c>
       <c r="C21">
-        <v>7350</v>
+        <v>5573</v>
       </c>
       <c r="D21">
-        <v>-43.65</v>
+        <v>-29.45</v>
       </c>
       <c r="E21">
-        <v>-50.15</v>
+        <v>-50.75</v>
       </c>
       <c r="F21">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>8.75</v>
+        <v>6.34</v>
       </c>
       <c r="H21">
-        <v>4.0199999999999996</v>
+        <v>5.22</v>
       </c>
       <c r="I21">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="J21">
-        <v>9.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K21">
-        <v>34.56</v>
+        <v>29.52</v>
       </c>
       <c r="L21">
-        <v>-123.19</v>
+        <v>-123.23</v>
       </c>
       <c r="M21">
-        <v>49.43</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>3044</v>
+        <v>2388</v>
       </c>
       <c r="B22">
-        <v>404.2</v>
+        <v>496.9</v>
       </c>
       <c r="C22">
-        <v>6897</v>
+        <v>5451</v>
       </c>
       <c r="D22">
-        <v>-39.75</v>
+        <v>-29.05</v>
       </c>
       <c r="E22">
-        <v>-47.95</v>
+        <v>-46.05</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G22">
-        <v>7.5</v>
+        <v>5.16</v>
       </c>
       <c r="H22">
-        <v>3.68</v>
+        <v>5.9</v>
       </c>
       <c r="I22">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J22">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="K22">
-        <v>30.24</v>
+        <v>28.08</v>
       </c>
       <c r="L22">
-        <v>-123.2</v>
+        <v>-123.23</v>
       </c>
       <c r="M22">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3014</v>
+        <v>2310</v>
       </c>
       <c r="B23">
-        <v>408.2</v>
+        <v>508.6</v>
       </c>
       <c r="C23">
-        <v>6829</v>
+        <v>5284</v>
       </c>
       <c r="D23">
-        <v>-39.15</v>
+        <v>-27.85</v>
       </c>
       <c r="E23">
-        <v>-50.35</v>
+        <v>-52.85</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>6.75</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H23">
-        <v>3.64</v>
+        <v>6.02</v>
       </c>
       <c r="I23">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J23">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="K23">
-        <v>27.72</v>
+        <v>28.08</v>
       </c>
       <c r="L23">
-        <v>-123.2</v>
+        <v>-123.24</v>
       </c>
       <c r="M23">
-        <v>49.42</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2920</v>
+        <v>2548</v>
       </c>
       <c r="B24">
-        <v>421.1</v>
+        <v>473.9</v>
       </c>
       <c r="C24">
-        <v>6615</v>
+        <v>5788</v>
       </c>
       <c r="D24">
-        <v>-37.450000000000003</v>
+        <v>-30.85</v>
       </c>
       <c r="E24">
-        <v>-45.25</v>
+        <v>-55.55</v>
       </c>
       <c r="F24">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6.2</v>
+        <v>7.29</v>
       </c>
       <c r="H24">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="I24">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J24">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>25.92</v>
+        <v>28.8</v>
       </c>
       <c r="L24">
-        <v>-123.21</v>
+        <v>-123.22</v>
       </c>
       <c r="M24">
-        <v>49.41</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2832</v>
+        <v>2468</v>
       </c>
       <c r="B25">
-        <v>433.7</v>
+        <v>485.3</v>
       </c>
       <c r="C25">
-        <v>6412</v>
+        <v>5620</v>
       </c>
       <c r="D25">
-        <v>-35.75</v>
+        <v>-29.55</v>
       </c>
       <c r="E25">
-        <v>-44.85</v>
+        <v>-46.05</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>5.55</v>
+        <v>6.72</v>
       </c>
       <c r="H25">
-        <v>3.07</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="I25">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J25">
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K25">
-        <v>22.68</v>
+        <v>29.88</v>
       </c>
       <c r="L25">
-        <v>-123.21</v>
+        <v>-123.23</v>
       </c>
       <c r="M25">
-        <v>49.41</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>2548</v>
+        <v>2920</v>
       </c>
       <c r="B26">
-        <v>473.9</v>
+        <v>421.1</v>
       </c>
       <c r="C26">
-        <v>5788</v>
+        <v>6615</v>
       </c>
       <c r="D26">
-        <v>-30.85</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="E26">
-        <v>-55.55</v>
+        <v>-45.25</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G26">
-        <v>7.29</v>
+        <v>6.2</v>
       </c>
       <c r="H26">
-        <v>3.36</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K26">
-        <v>28.8</v>
+        <v>25.92</v>
       </c>
       <c r="L26">
-        <v>-123.22</v>
+        <v>-123.21</v>
       </c>
       <c r="M26">
-        <v>49.39</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>2446</v>
+        <v>2832</v>
       </c>
       <c r="B27">
-        <v>488.5</v>
+        <v>433.7</v>
       </c>
       <c r="C27">
-        <v>5573</v>
+        <v>6412</v>
       </c>
       <c r="D27">
-        <v>-29.45</v>
+        <v>-35.75</v>
       </c>
       <c r="E27">
-        <v>-50.75</v>
+        <v>-44.85</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <v>6.34</v>
+        <v>5.55</v>
       </c>
       <c r="H27">
-        <v>5.22</v>
+        <v>3.07</v>
       </c>
       <c r="I27">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J27">
-        <v>8.1999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="K27">
-        <v>29.52</v>
+        <v>22.68</v>
       </c>
       <c r="L27">
-        <v>-123.23</v>
+        <v>-123.21</v>
       </c>
       <c r="M27">
-        <v>49.38</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>2468</v>
+        <v>3044</v>
       </c>
       <c r="B28">
-        <v>485.3</v>
+        <v>404.2</v>
       </c>
       <c r="C28">
-        <v>5620</v>
+        <v>6897</v>
       </c>
       <c r="D28">
-        <v>-29.55</v>
+        <v>-39.75</v>
       </c>
       <c r="E28">
-        <v>-46.05</v>
+        <v>-47.95</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>6.72</v>
+        <v>7.5</v>
       </c>
       <c r="H28">
-        <v>4.8899999999999997</v>
+        <v>3.68</v>
       </c>
       <c r="I28">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J28">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="K28">
-        <v>29.88</v>
+        <v>30.24</v>
       </c>
       <c r="L28">
-        <v>-123.23</v>
+        <v>-123.2</v>
       </c>
       <c r="M28">
-        <v>49.39</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>2388</v>
+        <v>3014</v>
       </c>
       <c r="B29">
-        <v>496.9</v>
+        <v>408.2</v>
       </c>
       <c r="C29">
-        <v>5451</v>
+        <v>6829</v>
       </c>
       <c r="D29">
-        <v>-29.05</v>
+        <v>-39.15</v>
       </c>
       <c r="E29">
-        <v>-46.05</v>
+        <v>-50.35</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>5.16</v>
+        <v>6.75</v>
       </c>
       <c r="H29">
-        <v>5.9</v>
+        <v>3.64</v>
       </c>
       <c r="I29">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="J29">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="K29">
-        <v>28.08</v>
+        <v>27.72</v>
       </c>
       <c r="L29">
-        <v>-123.23</v>
+        <v>-123.2</v>
       </c>
       <c r="M29">
-        <v>49.38</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2310</v>
+        <v>3262</v>
       </c>
       <c r="B30">
-        <v>508.6</v>
+        <v>378.1</v>
       </c>
       <c r="C30">
-        <v>5284</v>
+        <v>7350</v>
       </c>
       <c r="D30">
-        <v>-27.85</v>
+        <v>-43.65</v>
       </c>
       <c r="E30">
-        <v>-52.85</v>
+        <v>-50.15</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G30">
-        <v>4.8899999999999997</v>
+        <v>8.75</v>
       </c>
       <c r="H30">
-        <v>6.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I30">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J30">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="K30">
-        <v>28.08</v>
+        <v>34.56</v>
       </c>
       <c r="L30">
-        <v>-123.24</v>
+        <v>-123.19</v>
       </c>
       <c r="M30">
-        <v>49.38</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2150</v>
+        <v>3452</v>
       </c>
       <c r="B31">
-        <v>533.6</v>
+        <v>356.4</v>
       </c>
       <c r="C31">
-        <v>4939</v>
+        <v>7743</v>
       </c>
       <c r="D31">
-        <v>-27.65</v>
+        <v>-46.45</v>
       </c>
       <c r="E31">
-        <v>-29.75</v>
+        <v>-55.55</v>
       </c>
       <c r="F31">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>7.88</v>
+        <v>8.31</v>
       </c>
       <c r="H31">
-        <v>9.57</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I31">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="J31">
-        <v>12.4</v>
+        <v>8.6</v>
       </c>
       <c r="K31">
-        <v>44.64</v>
+        <v>30.96</v>
       </c>
       <c r="L31">
-        <v>-123.26</v>
+        <v>-123.18</v>
       </c>
       <c r="M31">
-        <v>49.37</v>
+        <v>49.45</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1592</v>
+        <v>3604</v>
       </c>
       <c r="B32">
-        <v>631.70000000000005</v>
+        <v>336.2</v>
       </c>
       <c r="C32">
-        <v>3700</v>
+        <v>8128</v>
       </c>
       <c r="D32">
-        <v>-16.95</v>
+        <v>-50.15</v>
       </c>
       <c r="E32">
-        <v>-22.05</v>
+        <v>-56.15</v>
       </c>
       <c r="F32">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>6.62</v>
+        <v>7.39</v>
       </c>
       <c r="H32">
-        <v>1.55</v>
+        <v>3.46</v>
       </c>
       <c r="I32">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J32">
-        <v>6.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K32">
-        <v>24.48</v>
+        <v>29.52</v>
       </c>
       <c r="L32">
-        <v>-123.3</v>
+        <v>-123.18</v>
       </c>
       <c r="M32">
-        <v>49.33</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1430</v>
+        <v>4056</v>
       </c>
       <c r="B33">
-        <v>661.2</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="C33">
-        <v>3355</v>
+        <v>9172</v>
       </c>
       <c r="D33">
-        <v>-13.85</v>
+        <v>-54.85</v>
       </c>
       <c r="E33">
-        <v>-22.05</v>
+        <v>-65.75</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>6.95</v>
+        <v>10.23</v>
       </c>
       <c r="H33">
-        <v>-0.13</v>
+        <v>8.6</v>
       </c>
       <c r="I33">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>13.4</v>
       </c>
       <c r="K33">
-        <v>25.2</v>
+        <v>48.24</v>
       </c>
       <c r="L33">
-        <v>-123.31</v>
+        <v>-123.14</v>
       </c>
       <c r="M33">
-        <v>49.32</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1114</v>
+        <v>4014</v>
       </c>
       <c r="B34">
-        <v>718.6</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="C34">
-        <v>2717</v>
+        <v>9073</v>
       </c>
       <c r="D34">
-        <v>-9.5499999999999599</v>
+        <v>-54.65</v>
       </c>
       <c r="E34">
-        <v>-12.55</v>
+        <v>-71.45</v>
       </c>
       <c r="F34">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>7.16</v>
+        <v>11.16</v>
       </c>
       <c r="H34">
-        <v>0.69</v>
+        <v>8.51</v>
       </c>
       <c r="I34">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="J34">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="K34">
-        <v>25.92</v>
+        <v>50.4</v>
       </c>
       <c r="L34">
-        <v>-123.31</v>
+        <v>-123.15</v>
       </c>
       <c r="M34">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1086</v>
+        <v>4170</v>
       </c>
       <c r="B35">
-        <v>724.3</v>
+        <v>274.5</v>
       </c>
       <c r="C35">
-        <v>2656</v>
+        <v>9433</v>
       </c>
       <c r="D35">
-        <v>-9.1499999999999808</v>
+        <v>-54.65</v>
       </c>
       <c r="E35">
-        <v>-13.45</v>
+        <v>-67.650000000000006</v>
       </c>
       <c r="F35">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>7.2</v>
+        <v>8.98</v>
       </c>
       <c r="H35">
-        <v>0.56999999999999995</v>
+        <v>5.56</v>
       </c>
       <c r="I35">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="J35">
-        <v>7.2</v>
+        <v>10.6</v>
       </c>
       <c r="K35">
-        <v>25.92</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="L35">
-        <v>-123.31</v>
+        <v>-123.13</v>
       </c>
       <c r="M35">
-        <v>49.3</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>880</v>
+        <v>4106</v>
       </c>
       <c r="B36">
-        <v>766.8</v>
+        <v>280.8</v>
       </c>
       <c r="C36">
-        <v>2212</v>
+        <v>9288</v>
       </c>
       <c r="D36">
-        <v>-6.5499999999999501</v>
+        <v>-55.15</v>
       </c>
       <c r="E36">
-        <v>-9.25</v>
+        <v>-66.849999999999994</v>
       </c>
       <c r="F36">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G36">
-        <v>8.57</v>
+        <v>10.18</v>
       </c>
       <c r="H36">
-        <v>-2.89</v>
+        <v>7.4</v>
       </c>
       <c r="I36">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>12.6</v>
       </c>
       <c r="K36">
-        <v>32.4</v>
+        <v>45.36</v>
       </c>
       <c r="L36">
-        <v>-123.31</v>
+        <v>-123.14</v>
       </c>
       <c r="M36">
-        <v>49.28</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>822</v>
+        <v>4270</v>
       </c>
       <c r="B37">
-        <v>779.8</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="C37">
-        <v>2081</v>
+        <v>9655</v>
       </c>
       <c r="D37">
-        <v>-5.6499999999999799</v>
+        <v>-53.85</v>
       </c>
       <c r="E37">
-        <v>-11.95</v>
+        <v>-76.650000000000006</v>
       </c>
       <c r="F37">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>10.57</v>
+        <v>9.34</v>
       </c>
       <c r="H37">
-        <v>-3.34</v>
+        <v>-1.26</v>
       </c>
       <c r="I37">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J37">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
       <c r="K37">
-        <v>39.96</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="L37">
-        <v>-123.3</v>
+        <v>-123.13</v>
       </c>
       <c r="M37">
-        <v>49.28</v>
+        <v>49.52</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>662</v>
+        <v>4592</v>
       </c>
       <c r="B38">
-        <v>813.1</v>
+        <v>234.9</v>
       </c>
       <c r="C38">
-        <v>1752</v>
+        <v>10434</v>
       </c>
       <c r="D38">
-        <v>-3.94999999999999</v>
+        <v>-52.85</v>
       </c>
       <c r="E38">
-        <v>-8.25</v>
+        <v>-81.150000000000006</v>
       </c>
       <c r="F38">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>6.86</v>
+        <v>8.82</v>
       </c>
       <c r="H38">
-        <v>-6.06</v>
+        <v>0.63</v>
       </c>
       <c r="I38">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="J38">
-        <v>9.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K38">
-        <v>33.119999999999997</v>
+        <v>31.68</v>
       </c>
       <c r="L38">
-        <v>-123.29</v>
+        <v>-123.12</v>
       </c>
       <c r="M38">
-        <v>49.27</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>0</v>
+        <v>4720</v>
       </c>
       <c r="B39">
-        <v>999.8</v>
+        <v>224.4</v>
       </c>
       <c r="C39">
-        <v>88</v>
+        <v>10728</v>
       </c>
       <c r="D39">
-        <v>6.0500000000000096</v>
+        <v>-51.95</v>
       </c>
       <c r="E39">
-        <v>2.8500000000000201</v>
+        <v>-80.650000000000006</v>
       </c>
       <c r="F39">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>-12.34</v>
+        <v>10.64</v>
       </c>
       <c r="H39">
-        <v>-0.43</v>
+        <v>-0.2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="J39">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="K39">
-        <v>44.28</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="L39">
-        <v>-123.24</v>
+        <v>-123.12</v>
       </c>
       <c r="M39">
-        <v>49.25</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>4</v>
+        <v>4856</v>
       </c>
       <c r="B40">
-        <v>998.3</v>
+        <v>213.2</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>11062</v>
       </c>
       <c r="D40">
-        <v>4.8500000000000201</v>
+        <v>-50.55</v>
       </c>
       <c r="E40">
-        <v>-1.25</v>
+        <v>-84.05</v>
       </c>
       <c r="F40">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>1.56</v>
+        <v>8.64</v>
       </c>
       <c r="H40">
-        <v>1.38</v>
+        <v>0.41</v>
       </c>
       <c r="I40">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="J40">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="K40">
-        <v>7.56</v>
+        <v>30.96</v>
       </c>
       <c r="L40">
-        <v>-123.24</v>
+        <v>-123.12</v>
       </c>
       <c r="M40">
-        <v>49.25</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>88</v>
+        <v>5814</v>
       </c>
       <c r="B41">
-        <v>970.7</v>
+        <v>149.4</v>
       </c>
       <c r="C41">
-        <v>329</v>
+        <v>13394</v>
       </c>
       <c r="D41">
-        <v>4.3500000000000201</v>
+        <v>-48.15</v>
       </c>
       <c r="E41">
-        <v>-0.849999999999966</v>
+        <v>-82.45</v>
       </c>
       <c r="F41">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>-0.11</v>
+        <v>9.52</v>
       </c>
       <c r="H41">
-        <v>-0.47</v>
+        <v>3.61</v>
       </c>
       <c r="I41">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="J41">
-        <v>0.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>36.72</v>
       </c>
       <c r="L41">
-        <v>-123.24</v>
+        <v>-123.1</v>
       </c>
       <c r="M41">
-        <v>49.25</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>140</v>
+        <v>6220</v>
       </c>
       <c r="B42">
-        <v>951.4</v>
+        <v>126.6</v>
       </c>
       <c r="C42">
-        <v>492</v>
+        <v>14472</v>
       </c>
       <c r="D42">
-        <v>3.6500000000000301</v>
+        <v>-51.65</v>
       </c>
       <c r="E42">
-        <v>-2.3499999999999699</v>
+        <v>-84.95</v>
       </c>
       <c r="F42">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>-1.18</v>
+        <v>9.68</v>
       </c>
       <c r="H42">
-        <v>-3.68</v>
+        <v>0.61</v>
       </c>
       <c r="I42">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="J42">
-        <v>3.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K42">
-        <v>14.04</v>
+        <v>34.92</v>
       </c>
       <c r="L42">
-        <v>-123.24</v>
+        <v>-123.09</v>
       </c>
       <c r="M42">
-        <v>49.25</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>178</v>
+        <v>6940</v>
       </c>
       <c r="B43">
-        <v>942</v>
+        <v>94.7</v>
       </c>
       <c r="C43">
-        <v>573</v>
+        <v>16360</v>
       </c>
       <c r="D43">
-        <v>4.8500000000000201</v>
+        <v>-50.45</v>
       </c>
       <c r="E43">
-        <v>-8.25</v>
+        <v>-84.05</v>
       </c>
       <c r="F43">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>-0.69</v>
+        <v>10.71</v>
       </c>
       <c r="H43">
-        <v>-5.18</v>
+        <v>3.67</v>
       </c>
       <c r="I43">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="J43">
-        <v>5.2</v>
+        <v>11.3</v>
       </c>
       <c r="K43">
-        <v>18.72</v>
+        <v>40.68</v>
       </c>
       <c r="L43">
-        <v>-123.24</v>
+        <v>-123.06</v>
       </c>
       <c r="M43">
-        <v>49.25</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>394</v>
+        <v>7602</v>
       </c>
       <c r="B44">
-        <v>875</v>
+        <v>71.8</v>
       </c>
       <c r="C44">
-        <v>1170</v>
+        <v>18148</v>
       </c>
       <c r="D44">
-        <v>0.25</v>
+        <v>-54.45</v>
       </c>
       <c r="E44">
-        <v>-13.65</v>
+        <v>-86.95</v>
       </c>
       <c r="F44">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>3.16</v>
+        <v>6.85</v>
       </c>
       <c r="H44">
-        <v>-7.91</v>
+        <v>1.38</v>
       </c>
       <c r="I44">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="J44">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K44">
-        <v>30.6</v>
+        <v>25.2</v>
       </c>
       <c r="L44">
-        <v>-123.27</v>
+        <v>-123.03</v>
       </c>
       <c r="M44">
-        <v>49.25</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>632</v>
+        <v>8578</v>
       </c>
       <c r="B45">
-        <v>819.2</v>
+        <v>48.1</v>
       </c>
       <c r="C45">
-        <v>1693</v>
+        <v>20746</v>
       </c>
       <c r="D45">
-        <v>-3.5499999999999501</v>
+        <v>-52.15</v>
       </c>
       <c r="E45">
-        <v>-9.8499999999999694</v>
+        <v>-85.25</v>
       </c>
       <c r="F45">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>6.92</v>
+        <v>3.32</v>
       </c>
       <c r="H45">
-        <v>-6.11</v>
+        <v>-5.92</v>
       </c>
       <c r="I45">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J45">
-        <v>9.1999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="K45">
-        <v>33.119999999999997</v>
+        <v>24.48</v>
       </c>
       <c r="L45">
-        <v>-123.29</v>
+        <v>-123.02</v>
       </c>
       <c r="M45">
-        <v>49.26</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>530</v>
+        <v>8364</v>
       </c>
       <c r="B46">
-        <v>842.4</v>
+        <v>52.8</v>
       </c>
       <c r="C46">
-        <v>1472</v>
+        <v>20139</v>
       </c>
       <c r="D46">
-        <v>-2.1499999999999799</v>
+        <v>-50.35</v>
       </c>
       <c r="E46">
-        <v>-9.3499999999999694</v>
+        <v>-84.05</v>
       </c>
       <c r="F46">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>4.8600000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H46">
-        <v>-6.92</v>
+        <v>-4.57</v>
       </c>
       <c r="I46">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J46">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="K46">
-        <v>30.6</v>
+        <v>23.4</v>
       </c>
       <c r="L46">
-        <v>-123.28</v>
+        <v>-123.01</v>
       </c>
       <c r="M46">
-        <v>49.26</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
@@ -3318,6 +3318,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M46">
+    <sortCondition ref="M46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6940,7 +6943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F76728-4745-4973-A79E-BBAE337FE035}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B56" sqref="B56:B73"/>
     </sheetView>
   </sheetViews>
